--- a/output/칠칠기업_법인카드_완성본.xlsx
+++ b/output/칠칠기업_법인카드_완성본.xlsx
@@ -2678,7 +2678,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>중식대</t>
+          <t>거래처 교제비</t>
         </is>
       </c>
     </row>
@@ -2696,7 +2696,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>중식대</t>
+          <t>거래처 교제비</t>
         </is>
       </c>
     </row>
@@ -2714,7 +2714,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>기타</t>
+          <t>거래처 교제비</t>
         </is>
       </c>
     </row>
@@ -2732,7 +2732,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>중식대</t>
+          <t>거래처 교제비</t>
         </is>
       </c>
     </row>
@@ -2750,7 +2750,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>중식대</t>
+          <t>거래처 교제비</t>
         </is>
       </c>
     </row>
@@ -2768,7 +2768,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>기타</t>
+          <t>거래처 교제비</t>
         </is>
       </c>
     </row>
@@ -2786,7 +2786,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>중식대</t>
+          <t>거래처 교제비</t>
         </is>
       </c>
     </row>
@@ -2804,7 +2804,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>중식대</t>
+          <t>거래처 교제비</t>
         </is>
       </c>
     </row>
@@ -2822,7 +2822,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>기타</t>
+          <t>거래처 교제비</t>
         </is>
       </c>
     </row>
@@ -2840,7 +2840,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>중식대</t>
+          <t>거래처 교제비</t>
         </is>
       </c>
     </row>
@@ -2858,7 +2858,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>중식대</t>
+          <t>거래처 교제비</t>
         </is>
       </c>
     </row>
@@ -2876,7 +2876,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>중식대</t>
+          <t>거래처 교제비</t>
         </is>
       </c>
     </row>
@@ -2912,7 +2912,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>기타</t>
+          <t>거래처 교제비</t>
         </is>
       </c>
     </row>
@@ -2930,7 +2930,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>중식대</t>
+          <t>거래처 교제비</t>
         </is>
       </c>
     </row>
@@ -2948,7 +2948,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>중식대</t>
+          <t>거래처 교제비</t>
         </is>
       </c>
     </row>
@@ -2966,7 +2966,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>중식대</t>
+          <t>거래처 교제비</t>
         </is>
       </c>
     </row>
@@ -2984,7 +2984,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>기타</t>
+          <t>거래처 교제비</t>
         </is>
       </c>
     </row>
@@ -3002,7 +3002,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>중식대</t>
+          <t>거래처 교제비</t>
         </is>
       </c>
     </row>
@@ -3020,7 +3020,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>중식대</t>
+          <t>거래처 교제비</t>
         </is>
       </c>
     </row>
@@ -3038,7 +3038,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>복리후생비</t>
+          <t>거래처 교제비</t>
         </is>
       </c>
     </row>
@@ -3056,7 +3056,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>중식대</t>
+          <t>거래처 교제비</t>
         </is>
       </c>
     </row>
@@ -3074,7 +3074,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>복리후생비</t>
+          <t>거래처 교제비</t>
         </is>
       </c>
     </row>
@@ -3092,7 +3092,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>복리후생비</t>
+          <t>거래처 교제비</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3110,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>복리후생비</t>
+          <t>거래처 교제비</t>
         </is>
       </c>
     </row>
@@ -3128,7 +3128,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>복리후생비</t>
+          <t>거래처 교제비</t>
         </is>
       </c>
     </row>
@@ -3164,7 +3164,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>중식대</t>
+          <t>거래처 교제비</t>
         </is>
       </c>
     </row>
@@ -3182,7 +3182,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>기타</t>
+          <t>거래처 교제비</t>
         </is>
       </c>
     </row>
@@ -3200,7 +3200,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>중식대</t>
+          <t>거래처 교제비</t>
         </is>
       </c>
     </row>
@@ -3236,7 +3236,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>중식대</t>
+          <t>거래처 교제비</t>
         </is>
       </c>
     </row>
@@ -3254,7 +3254,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>기타</t>
+          <t>거래처 교제비</t>
         </is>
       </c>
     </row>
@@ -3272,7 +3272,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>중식대</t>
+          <t>거래처 교제비</t>
         </is>
       </c>
     </row>
@@ -3290,7 +3290,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>기타</t>
+          <t>거래처 교제비</t>
         </is>
       </c>
     </row>
@@ -3326,7 +3326,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>중식대</t>
+          <t>거래처 교제비</t>
         </is>
       </c>
     </row>
@@ -3344,7 +3344,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>기타</t>
+          <t>거래처 교제비</t>
         </is>
       </c>
     </row>
@@ -3362,7 +3362,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>중식대</t>
+          <t>거래처 교제비</t>
         </is>
       </c>
     </row>
@@ -3416,7 +3416,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>중식대</t>
+          <t>거래처 교제비</t>
         </is>
       </c>
     </row>
@@ -3434,7 +3434,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>기타</t>
+          <t>거래처 교제비</t>
         </is>
       </c>
     </row>
@@ -3470,7 +3470,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>중식대</t>
+          <t>거래처 교제비</t>
         </is>
       </c>
     </row>
@@ -3524,7 +3524,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>기타</t>
+          <t>거래처 교제비</t>
         </is>
       </c>
     </row>
@@ -3542,7 +3542,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>중식대</t>
+          <t>거래처 교제비</t>
         </is>
       </c>
     </row>
@@ -3560,7 +3560,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>기타</t>
+          <t>거래처 교제비</t>
         </is>
       </c>
     </row>
@@ -3578,7 +3578,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>중식대</t>
+          <t>거래처 교제비</t>
         </is>
       </c>
     </row>
@@ -3596,7 +3596,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>중식대</t>
+          <t>거래처 교제비</t>
         </is>
       </c>
     </row>
@@ -3614,7 +3614,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>중식대</t>
+          <t>거래처 교제비</t>
         </is>
       </c>
     </row>
@@ -3632,7 +3632,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>중식대</t>
+          <t>거래처 교제비</t>
         </is>
       </c>
     </row>
@@ -3650,7 +3650,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>기타</t>
+          <t>거래처 교제비</t>
         </is>
       </c>
     </row>
@@ -3668,7 +3668,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>기타</t>
+          <t>거래처 교제비</t>
         </is>
       </c>
     </row>
@@ -3704,7 +3704,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>중식대</t>
+          <t>거래처 교제비</t>
         </is>
       </c>
     </row>
@@ -3722,7 +3722,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>기타</t>
+          <t>거래처 교제비</t>
         </is>
       </c>
     </row>
@@ -3740,7 +3740,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>중식대</t>
+          <t>거래처 교제비</t>
         </is>
       </c>
     </row>
@@ -3758,7 +3758,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>중식대</t>
+          <t>거래처 교제비</t>
         </is>
       </c>
     </row>
@@ -3776,7 +3776,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>중식대</t>
+          <t>거래처 교제비</t>
         </is>
       </c>
     </row>
@@ -3794,7 +3794,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>중식대</t>
+          <t>거래처 교제비</t>
         </is>
       </c>
     </row>
@@ -3812,7 +3812,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>기타</t>
+          <t>거래처 교제비</t>
         </is>
       </c>
     </row>
@@ -3830,7 +3830,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>복리후생비</t>
+          <t>거래처 교제비</t>
         </is>
       </c>
     </row>
@@ -3848,7 +3848,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>기타</t>
+          <t>거래처 교제비</t>
         </is>
       </c>
     </row>
@@ -3884,7 +3884,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>복리후생비</t>
+          <t>거래처 교제비</t>
         </is>
       </c>
     </row>
@@ -3902,7 +3902,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>복리후생비</t>
+          <t>거래처 교제비</t>
         </is>
       </c>
     </row>
@@ -4524,7 +4524,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>소모품비</t>
+          <t>기숙사 물품 구입비</t>
         </is>
       </c>
     </row>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>사용료</t>
+          <t>휴대폰(010-3664-7179)사용료</t>
         </is>
       </c>
     </row>
@@ -4632,7 +4632,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>사용료</t>
+          <t>휴대폰(010-7504-4043)사용료</t>
         </is>
       </c>
     </row>
@@ -4758,7 +4758,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>보험료</t>
+          <t>기숙사 물품 구입비</t>
         </is>
       </c>
     </row>
@@ -4776,7 +4776,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>회사물품구입비</t>
+          <t>기숙사 물품 구입비</t>
         </is>
       </c>
     </row>
@@ -4902,7 +4902,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>소모품비</t>
+          <t>기숙사 물품 구입비</t>
         </is>
       </c>
     </row>
@@ -4938,7 +4938,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>사용료</t>
+          <t>휴대폰(010-3664-7179)사용료</t>
         </is>
       </c>
     </row>
@@ -4956,7 +4956,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>사용료</t>
+          <t>휴대폰(010-7504-4043)사용료</t>
         </is>
       </c>
     </row>
@@ -5010,7 +5010,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>회사물품구입비</t>
+          <t>기숙사 물품 구입비</t>
         </is>
       </c>
     </row>
@@ -5028,7 +5028,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>회사물품구입비</t>
+          <t>기숙사 물품 구입비</t>
         </is>
       </c>
     </row>
@@ -5064,7 +5064,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>차량유지비(부품)</t>
+          <t>기숙사 물품 구입비</t>
         </is>
       </c>
     </row>
@@ -5118,7 +5118,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>회사물품구입비</t>
+          <t>기숙사 물품 구입비</t>
         </is>
       </c>
     </row>
@@ -5136,7 +5136,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>회사물품구입비</t>
+          <t>기숙사 물품 구입비</t>
         </is>
       </c>
     </row>
@@ -5154,7 +5154,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>회사물품구입비</t>
+          <t>기숙사 물품 구입비</t>
         </is>
       </c>
     </row>
@@ -5280,7 +5280,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>소모품비</t>
+          <t>기숙사 물품 구입비</t>
         </is>
       </c>
     </row>
@@ -5316,7 +5316,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>회사물품구입비</t>
+          <t>기숙사 물품 구입비</t>
         </is>
       </c>
     </row>
@@ -5334,7 +5334,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>사용료</t>
+          <t>휴대폰(010-7504-4043)사용료</t>
         </is>
       </c>
     </row>
@@ -5352,7 +5352,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>사용료</t>
+          <t>휴대폰(010-3664-7179)사용료</t>
         </is>
       </c>
     </row>
@@ -5460,7 +5460,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>기타</t>
+          <t>기숙사 물품 구입비</t>
         </is>
       </c>
     </row>
@@ -5496,7 +5496,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>복리후생비</t>
+          <t>기숙사 물품 구입비</t>
         </is>
       </c>
     </row>

--- a/output/칠칠기업_법인카드_완성본.xlsx
+++ b/output/칠칠기업_법인카드_완성본.xlsx
@@ -2,9 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="708" yWindow="708" windowWidth="38376" windowHeight="20856" tabRatio="600" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3987" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,27 +11,46 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="6902" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="6974" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="9980" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="6911" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'3987'!$A$1:$D$119</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'4985'!$A$1:$D$72</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'6902'!$A$1:$D$25</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'6974'!$A$1:$D$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'9980'!$A$1:$D$71</definedName>
+  </definedNames>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="3"/>
       <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <sz val="8"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -52,25 +70,38 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -435,11 +466,17 @@
   </sheetPr>
   <dimension ref="A1:D119"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="17.4"/>
+  <cols>
+    <col width="18.8984375" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
+    <col width="39.09765625" bestFit="1" customWidth="1" style="4" min="2" max="2"/>
+    <col width="12.09765625" customWidth="1" style="4" min="3" max="3"/>
+    <col width="28.59765625" bestFit="1" customWidth="1" style="4" min="4" max="4"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -464,2130 +501,2131 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="n">
+      <c r="A2" s="5" t="n">
         <v>45810</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>휴대폰메시지(승인안내)-06월분</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="4" t="n">
         <v>400</v>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" s="4" t="inlineStr">
         <is>
           <t>사용료</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="n">
+      <c r="A3" s="5" t="n">
         <v>45839</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="4" t="inlineStr">
         <is>
           <t>휴대폰메시지(승인안내)-07월분</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" s="4" t="n">
         <v>400</v>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" s="4" t="inlineStr">
         <is>
           <t>사용료</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="n">
+      <c r="A4" s="5" t="n">
         <v>45839</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr">
         <is>
           <t>제육대가</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="4" t="n">
         <v>9000</v>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" s="4" t="inlineStr">
         <is>
           <t>중식대</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="n">
+      <c r="A5" s="5" t="n">
         <v>45840</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr">
         <is>
           <t>(주)삼원기업</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="4" t="n">
         <v>61000</v>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" s="4" t="inlineStr">
         <is>
           <t>0276호 스타렉스 경유대</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="n">
+      <c r="A6" s="5" t="n">
         <v>45840</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="4" t="inlineStr">
         <is>
           <t>써브웨이 안산고잔점</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="4" t="n">
         <v>8500</v>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D6" s="4" t="inlineStr">
         <is>
           <t>중식대</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="n">
+      <c r="A7" s="5" t="n">
         <v>45841</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="4" t="inlineStr">
         <is>
           <t>서울보증보험(주)안산지점/인터넷</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="4" t="n">
         <v>15000</v>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D7" s="4" t="inlineStr">
         <is>
           <t>보증보험료</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="n">
+      <c r="A8" s="5" t="n">
         <v>45841</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" s="4" t="inlineStr">
         <is>
           <t>써브웨이 안산고잔점</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" s="4" t="n">
         <v>7800</v>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D8" s="4" t="inlineStr">
         <is>
           <t>중식대</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="n">
+      <c r="A9" s="5" t="n">
         <v>45841</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" s="4" t="inlineStr">
         <is>
           <t>(주)대지석유 산업주유소</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" s="4" t="n">
         <v>10000</v>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D9" s="4" t="inlineStr">
         <is>
           <t>제네시스(9581호)  G70휘발유대</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="n">
+      <c r="A10" s="5" t="n">
         <v>45842</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" s="4" t="inlineStr">
         <is>
           <t>(주)삼원기업</t>
         </is>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" s="4" t="n">
         <v>81000</v>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D10" s="4" t="inlineStr">
         <is>
           <t>0276호 스타렉스 경유대</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="n">
+      <c r="A11" s="5" t="n">
         <v>45842</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" s="4" t="inlineStr">
         <is>
           <t>돈카츠석</t>
         </is>
       </c>
-      <c r="C11" t="n">
+      <c r="C11" s="4" t="n">
         <v>34400</v>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D11" s="4" t="inlineStr">
         <is>
           <t>중식대</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="n">
+      <c r="A12" s="5" t="n">
         <v>45845</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" s="4" t="inlineStr">
         <is>
           <t>맥도날드 안산고잔DT점</t>
         </is>
       </c>
-      <c r="C12" t="n">
+      <c r="C12" s="4" t="n">
         <v>8400</v>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D12" s="4" t="inlineStr">
         <is>
           <t>중식대</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="n">
+      <c r="A13" s="5" t="n">
         <v>45846</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" s="4" t="inlineStr">
         <is>
           <t>(주) 삼호 SW주유소</t>
         </is>
       </c>
-      <c r="C13" t="n">
+      <c r="C13" s="4" t="n">
         <v>150000</v>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="D13" s="4" t="inlineStr">
         <is>
           <t>5352호(5톤 화물차량)경유비</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="n">
+      <c r="A14" s="5" t="n">
         <v>45847</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" s="4" t="inlineStr">
         <is>
           <t>큰맘할매순대국 안산시청점</t>
         </is>
       </c>
-      <c r="C14" t="n">
+      <c r="C14" s="4" t="n">
         <v>10000</v>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="D14" s="4" t="inlineStr">
         <is>
           <t>중식대</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="n">
+      <c r="A15" s="5" t="n">
         <v>45848</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" s="4" t="inlineStr">
         <is>
           <t>쿠팡(주)-쿠팡(주)</t>
         </is>
       </c>
-      <c r="C15" t="n">
+      <c r="C15" s="4" t="n">
         <v>12150</v>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="D15" s="4" t="inlineStr">
         <is>
           <t>회사물품구입비</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="n">
+      <c r="A16" s="5" t="n">
         <v>45848</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" s="4" t="inlineStr">
         <is>
           <t>또돈</t>
         </is>
       </c>
-      <c r="C16" t="n">
+      <c r="C16" s="4" t="n">
         <v>7000</v>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D16" s="4" t="inlineStr">
         <is>
           <t>중식대</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="n">
+      <c r="A17" s="5" t="n">
         <v>45849</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" s="4" t="inlineStr">
         <is>
           <t>주식회사 빅바이트컴퍼니 쉐이크쉑인천공항</t>
         </is>
       </c>
-      <c r="C17" t="n">
+      <c r="C17" s="4" t="n">
         <v>25690</v>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="D17" s="4" t="inlineStr">
         <is>
           <t>중식대</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="n">
+      <c r="A18" s="5" t="n">
         <v>45851</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" s="4" t="inlineStr">
         <is>
           <t>인천국제공항공사</t>
         </is>
       </c>
-      <c r="C18" t="n">
+      <c r="C18" s="4" t="n">
         <v>26000</v>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D18" s="4" t="inlineStr">
         <is>
           <t>주차비</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="n">
+      <c r="A19" s="5" t="n">
         <v>45851</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" s="4" t="inlineStr">
         <is>
           <t>자동결제-(주)한글과컴퓨터</t>
         </is>
       </c>
-      <c r="C19" t="n">
+      <c r="C19" s="4" t="n">
         <v>10900</v>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D19" s="4" t="inlineStr">
         <is>
           <t>사용료</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="n">
+      <c r="A20" s="5" t="n">
         <v>45851</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" s="4" t="inlineStr">
         <is>
           <t>GS칼텍스(주)인천국제공항점</t>
         </is>
       </c>
-      <c r="C20" t="n">
+      <c r="C20" s="4" t="n">
         <v>50000</v>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D20" s="4" t="inlineStr">
         <is>
           <t>차량유지비(주유)</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="n">
+      <c r="A21" s="5" t="n">
         <v>45852</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" s="4" t="inlineStr">
         <is>
           <t>시골추어탕</t>
         </is>
       </c>
-      <c r="C21" t="n">
+      <c r="C21" s="4" t="n">
         <v>9000</v>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D21" s="4" t="inlineStr">
         <is>
           <t>중식대</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="n">
+      <c r="A22" s="5" t="n">
         <v>45853</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" s="4" t="inlineStr">
         <is>
           <t>써브웨이 안산고잔점</t>
         </is>
       </c>
-      <c r="C22" t="n">
+      <c r="C22" s="4" t="n">
         <v>7800</v>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D22" s="4" t="inlineStr">
         <is>
           <t>중식대</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="3" t="n">
+      <c r="A23" s="5" t="n">
         <v>45854</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" s="4" t="inlineStr">
         <is>
           <t>써브웨이 안산고잔점</t>
         </is>
       </c>
-      <c r="C23" t="n">
+      <c r="C23" s="4" t="n">
         <v>8500</v>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="D23" s="4" t="inlineStr">
         <is>
           <t>중식대</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="n">
+      <c r="A24" s="5" t="n">
         <v>45854</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" s="4" t="inlineStr">
         <is>
           <t>서안산 IC주유소</t>
         </is>
       </c>
-      <c r="C24" t="n">
+      <c r="C24" s="4" t="n">
         <v>86000</v>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D24" s="4" t="inlineStr">
         <is>
           <t>0276호 스타렉스 경유대</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="3" t="n">
+      <c r="A25" s="5" t="n">
         <v>45855</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" s="4" t="inlineStr">
         <is>
           <t>쿠팡(주)-쿠팡(주)</t>
         </is>
       </c>
-      <c r="C25" t="n">
+      <c r="C25" s="4" t="n">
         <v>13430</v>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="D25" s="4" t="inlineStr">
         <is>
           <t>회사물품구입비</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="3" t="n">
+      <c r="A26" s="5" t="n">
         <v>45855</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" s="4" t="inlineStr">
         <is>
           <t>(주) 삼호 SW주유소</t>
         </is>
       </c>
-      <c r="C26" t="n">
+      <c r="C26" s="4" t="n">
         <v>250000</v>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="D26" s="4" t="inlineStr">
         <is>
           <t>5352호(5톤 화물차량)경유비</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="3" t="n">
+      <c r="A27" s="5" t="n">
         <v>45855</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" s="4" t="inlineStr">
         <is>
           <t>법원행정처(인증)-인터넷등기소</t>
         </is>
       </c>
-      <c r="C27" t="n">
+      <c r="C27" s="4" t="n">
         <v>700</v>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="D27" s="4" t="inlineStr">
         <is>
           <t>수수료</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="3" t="n">
+      <c r="A28" s="5" t="n">
         <v>45856</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" s="4" t="inlineStr">
         <is>
           <t>한식뷔페칠성고잔점</t>
         </is>
       </c>
-      <c r="C28" t="n">
+      <c r="C28" s="4" t="n">
         <v>9000</v>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="D28" s="4" t="inlineStr">
         <is>
           <t>중식대</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="3" t="n">
+      <c r="A29" s="5" t="n">
         <v>45857</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" s="4" t="inlineStr">
         <is>
           <t>주식회사 신사</t>
         </is>
       </c>
-      <c r="C29" t="n">
+      <c r="C29" s="4" t="n">
         <v>80000</v>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="D29" s="4" t="inlineStr">
         <is>
           <t>기타</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="3" t="n">
+      <c r="A30" s="5" t="n">
         <v>45859</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" s="4" t="inlineStr">
         <is>
           <t>또돈</t>
         </is>
       </c>
-      <c r="C30" t="n">
+      <c r="C30" s="4" t="n">
         <v>7000</v>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="D30" s="4" t="inlineStr">
         <is>
           <t>중식대</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="3" t="n">
+      <c r="A31" s="5" t="n">
         <v>45860</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" s="4" t="inlineStr">
         <is>
           <t>뚜껑이네솥밥</t>
         </is>
       </c>
-      <c r="C31" t="n">
+      <c r="C31" s="4" t="n">
         <v>24000</v>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="D31" s="4" t="inlineStr">
         <is>
           <t>중식대</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="3" t="n">
+      <c r="A32" s="5" t="n">
         <v>45860</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" s="4" t="inlineStr">
         <is>
           <t>주식회사 아성다이소</t>
         </is>
       </c>
-      <c r="C32" t="n">
+      <c r="C32" s="4" t="n">
         <v>42000</v>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="D32" s="4" t="inlineStr">
         <is>
           <t>회사비품구입비</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="3" t="n">
+      <c r="A33" s="5" t="n">
         <v>45861</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" s="4" t="inlineStr">
         <is>
           <t>(주)삼원기업</t>
         </is>
       </c>
-      <c r="C33" t="n">
+      <c r="C33" s="4" t="n">
         <v>200000</v>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="D33" s="4" t="inlineStr">
         <is>
           <t>0276호 스타렉스 경유대</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="3" t="n">
+      <c r="A34" s="5" t="n">
         <v>45861</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" s="4" t="inlineStr">
         <is>
           <t>시골추어탕</t>
         </is>
       </c>
-      <c r="C34" t="n">
+      <c r="C34" s="4" t="n">
         <v>11000</v>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="D34" s="4" t="inlineStr">
         <is>
           <t>중식대</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="3" t="n">
+      <c r="A35" s="5" t="n">
         <v>45862</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" s="4" t="inlineStr">
         <is>
           <t>엘에이(LA)북창동순두부안산원시점</t>
         </is>
       </c>
-      <c r="C35" t="n">
+      <c r="C35" s="4" t="n">
         <v>34500</v>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="D35" s="4" t="inlineStr">
         <is>
           <t>중식대</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="3" t="n">
+      <c r="A36" s="5" t="n">
         <v>45863</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" s="4" t="inlineStr">
         <is>
           <t>(주)삼원기업</t>
         </is>
       </c>
-      <c r="C36" t="n">
+      <c r="C36" s="4" t="n">
         <v>64000</v>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="D36" s="4" t="inlineStr">
         <is>
           <t>0276호 스타렉스 경유대</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="3" t="n">
+      <c r="A37" s="5" t="n">
         <v>45864</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" s="4" t="inlineStr">
         <is>
           <t>조남주유소</t>
         </is>
       </c>
-      <c r="C37" t="n">
+      <c r="C37" s="4" t="n">
         <v>97000</v>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="D37" s="4" t="inlineStr">
         <is>
           <t>차량유지비(주유)</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="3" t="n">
+      <c r="A38" s="5" t="n">
         <v>45866</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" s="4" t="inlineStr">
         <is>
           <t>지자체세입금(온라인)-안산시단원-재산세（</t>
         </is>
       </c>
-      <c r="C38" t="n">
+      <c r="C38" s="4" t="n">
         <v>5428870</v>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="D38" s="4" t="inlineStr">
         <is>
           <t>세금</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="3" t="n">
+      <c r="A39" s="5" t="n">
         <v>45866</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" s="4" t="inlineStr">
         <is>
           <t>한식뷔페칠성고잔점</t>
         </is>
       </c>
-      <c r="C39" t="n">
+      <c r="C39" s="4" t="n">
         <v>10000</v>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="D39" s="4" t="inlineStr">
         <is>
           <t>중식대</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="3" t="n">
+      <c r="A40" s="5" t="n">
         <v>45866</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" s="4" t="inlineStr">
         <is>
           <t>우정사업본부(우체국)</t>
         </is>
       </c>
-      <c r="C40" t="n">
+      <c r="C40" s="4" t="n">
         <v>4760</v>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="D40" s="4" t="inlineStr">
         <is>
           <t>우편료</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="3" t="n">
+      <c r="A41" s="5" t="n">
         <v>45867</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" s="4" t="inlineStr">
         <is>
           <t>쿠팡-쿠팡(주)</t>
         </is>
       </c>
-      <c r="C41" t="n">
+      <c r="C41" s="4" t="n">
         <v>74000</v>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="D41" s="4" t="inlineStr">
         <is>
           <t>회사물품구입비</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="3" t="n">
+      <c r="A42" s="5" t="n">
         <v>45867</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" s="4" t="inlineStr">
         <is>
           <t>써브웨이 안산고잔점</t>
         </is>
       </c>
-      <c r="C42" t="n">
+      <c r="C42" s="4" t="n">
         <v>8500</v>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="D42" s="4" t="inlineStr">
         <is>
           <t>중식대</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="3" t="n">
+      <c r="A43" s="5" t="n">
         <v>45868</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" s="4" t="inlineStr">
         <is>
           <t>맘스터치 (고잔신도시점)</t>
         </is>
       </c>
-      <c r="C43" t="n">
+      <c r="C43" s="4" t="n">
         <v>7800</v>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="D43" s="4" t="inlineStr">
         <is>
           <t>중식대</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="3" t="n">
+      <c r="A44" s="5" t="n">
         <v>45869</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" s="4" t="inlineStr">
         <is>
           <t>와와식당</t>
         </is>
       </c>
-      <c r="C44" t="n">
+      <c r="C44" s="4" t="n">
         <v>12000</v>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="D44" s="4" t="inlineStr">
         <is>
           <t>중식대</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="3" t="n">
+      <c r="A45" s="5" t="n">
         <v>45874</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" s="4" t="inlineStr">
         <is>
           <t>서울보증보험(주)안산지점/인터넷</t>
         </is>
       </c>
-      <c r="C45" t="n">
+      <c r="C45" s="4" t="n">
         <v>15000</v>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="D45" s="4" t="inlineStr">
         <is>
           <t>보증보험료</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="3" t="n">
+      <c r="A46" s="5" t="n">
         <v>45874</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" s="4" t="inlineStr">
         <is>
           <t>서울옥</t>
         </is>
       </c>
-      <c r="C46" t="n">
+      <c r="C46" s="4" t="n">
         <v>36000</v>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="D46" s="4" t="inlineStr">
         <is>
           <t>중식대</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="3" t="n">
+      <c r="A47" s="5" t="n">
         <v>45874</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" s="4" t="inlineStr">
         <is>
           <t>주식회사 원시점현대자동차</t>
         </is>
       </c>
-      <c r="C47" t="n">
+      <c r="C47" s="4" t="n">
         <v>149754</v>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="D47" s="4" t="inlineStr">
         <is>
           <t>차량유지비(기타)</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="3" t="n">
+      <c r="A48" s="5" t="n">
         <v>45874</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" s="4" t="inlineStr">
         <is>
           <t>쿠팡(주)-쿠팡(주)</t>
         </is>
       </c>
-      <c r="C48" t="n">
+      <c r="C48" s="4" t="n">
         <v>19700</v>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="D48" s="4" t="inlineStr">
         <is>
           <t>회사물품구입비</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="3" t="n">
+      <c r="A49" s="5" t="n">
         <v>45874</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" s="4" t="inlineStr">
         <is>
           <t>휴대폰메시지(승인안내)-08월분</t>
         </is>
       </c>
-      <c r="C49" t="n">
+      <c r="C49" s="4" t="n">
         <v>400</v>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="D49" s="4" t="inlineStr">
         <is>
           <t>사용료</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="3" t="n">
+      <c r="A50" s="5" t="n">
         <v>45875</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" s="4" t="inlineStr">
         <is>
           <t>쿠팡-쿠팡(주)</t>
         </is>
       </c>
-      <c r="C50" t="n">
+      <c r="C50" s="4" t="n">
         <v>39000</v>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="D50" s="4" t="inlineStr">
         <is>
           <t>회사물품구입비</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="3" t="n">
+      <c r="A51" s="5" t="n">
         <v>45875</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" s="4" t="inlineStr">
         <is>
           <t>맘스터치 (고잔신도시점)</t>
         </is>
       </c>
-      <c r="C51" t="n">
+      <c r="C51" s="4" t="n">
         <v>7400</v>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="D51" s="4" t="inlineStr">
         <is>
           <t>중식대</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="3" t="n">
+      <c r="A52" s="5" t="n">
         <v>45876</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" s="4" t="inlineStr">
         <is>
           <t>(주) 삼호 SW주유소</t>
         </is>
       </c>
-      <c r="C52" t="n">
+      <c r="C52" s="4" t="n">
         <v>150000</v>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="D52" s="4" t="inlineStr">
         <is>
           <t>5352호(5톤 화물차량)경유비</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="3" t="n">
+      <c r="A53" s="5" t="n">
         <v>45876</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" s="4" t="inlineStr">
         <is>
           <t>맘스터치 (고잔신도시점)</t>
         </is>
       </c>
-      <c r="C53" t="n">
+      <c r="C53" s="4" t="n">
         <v>7800</v>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="D53" s="4" t="inlineStr">
         <is>
           <t>중식대</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="3" t="n">
+      <c r="A54" s="5" t="n">
         <v>45877</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" s="4" t="inlineStr">
         <is>
           <t>제육대가</t>
         </is>
       </c>
-      <c r="C54" t="n">
+      <c r="C54" s="4" t="n">
         <v>9000</v>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="D54" s="4" t="inlineStr">
         <is>
           <t>중식대</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="3" t="n">
+      <c r="A55" s="5" t="n">
         <v>45877</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" s="4" t="inlineStr">
         <is>
           <t>(주)대지석유 산업주유소</t>
         </is>
       </c>
-      <c r="C55" t="n">
+      <c r="C55" s="4" t="n">
         <v>80000</v>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="D55" s="4" t="inlineStr">
         <is>
           <t>제네시스(9581호)  G70휘발유대</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="3" t="n">
+      <c r="A56" s="5" t="n">
         <v>45880</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" s="4" t="inlineStr">
         <is>
           <t>공일돈까스 안산MTV점</t>
         </is>
       </c>
-      <c r="C56" t="n">
+      <c r="C56" s="4" t="n">
         <v>14500</v>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="D56" s="4" t="inlineStr">
         <is>
           <t>중식대</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="3" t="n">
+      <c r="A57" s="5" t="n">
         <v>45881</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" s="4" t="inlineStr">
         <is>
           <t>안산단원목내457A</t>
         </is>
       </c>
-      <c r="C57" t="n">
+      <c r="C57" s="4" t="n">
         <v>7810</v>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="D57" s="4" t="inlineStr">
         <is>
           <t>차량유지비(기타)</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="3" t="n">
+      <c r="A58" s="5" t="n">
         <v>45881</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" s="4" t="inlineStr">
         <is>
           <t>한스오물렛</t>
         </is>
       </c>
-      <c r="C58" t="n">
+      <c r="C58" s="4" t="n">
         <v>8000</v>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="D58" s="4" t="inlineStr">
         <is>
           <t>중식대</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="3" t="n">
+      <c r="A59" s="5" t="n">
         <v>45882</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" s="4" t="inlineStr">
         <is>
           <t>맘스터치 (고잔신도시점)</t>
         </is>
       </c>
-      <c r="C59" t="n">
+      <c r="C59" s="4" t="n">
         <v>7400</v>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="D59" s="4" t="inlineStr">
         <is>
           <t>중식대</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="3" t="n">
+      <c r="A60" s="5" t="n">
         <v>45882</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" s="4" t="inlineStr">
         <is>
           <t>자동결제-(주)한글과컴퓨터</t>
         </is>
       </c>
-      <c r="C60" t="n">
+      <c r="C60" s="4" t="n">
         <v>10900</v>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="D60" s="4" t="inlineStr">
         <is>
           <t>사용료</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="3" t="n">
+      <c r="A61" s="5" t="n">
         <v>45883</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" s="4" t="inlineStr">
         <is>
           <t>시골추어탕</t>
         </is>
       </c>
-      <c r="C61" t="n">
+      <c r="C61" s="4" t="n">
         <v>11000</v>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="D61" s="4" t="inlineStr">
         <is>
           <t>중식대</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="3" t="n">
+      <c r="A62" s="5" t="n">
         <v>45884</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" s="4" t="inlineStr">
         <is>
           <t>대웅주유소</t>
         </is>
       </c>
-      <c r="C62" t="n">
+      <c r="C62" s="4" t="n">
         <v>90000</v>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="D62" s="4" t="inlineStr">
         <is>
           <t>차량유지비(주유)</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="3" t="n">
+      <c r="A63" s="5" t="n">
         <v>45887</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" s="4" t="inlineStr">
         <is>
           <t>(주)삼원기업</t>
         </is>
       </c>
-      <c r="C63" t="n">
+      <c r="C63" s="4" t="n">
         <v>92000</v>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="D63" s="4" t="inlineStr">
         <is>
           <t>0276호 스타렉스 경유대</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="3" t="n">
+      <c r="A64" s="5" t="n">
         <v>45887</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" s="4" t="inlineStr">
         <is>
           <t>롯데쇼핑(주)롯데마트시화점</t>
         </is>
       </c>
-      <c r="C64" t="n">
+      <c r="C64" s="4" t="n">
         <v>9000</v>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="D64" s="4" t="inlineStr">
         <is>
           <t>소모품비</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="3" t="n">
+      <c r="A65" s="5" t="n">
         <v>45888</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" s="4" t="inlineStr">
         <is>
           <t>웰컴페이먼츠_키오스크_A-주식</t>
         </is>
       </c>
-      <c r="C65" t="n">
+      <c r="C65" s="4" t="n">
         <v>11000</v>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="D65" s="4" t="inlineStr">
         <is>
           <t>중식대</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="3" t="n">
+      <c r="A66" s="5" t="n">
         <v>45889</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" s="4" t="inlineStr">
         <is>
           <t>제육대가</t>
         </is>
       </c>
-      <c r="C66" t="n">
+      <c r="C66" s="4" t="n">
         <v>10000</v>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="D66" s="4" t="inlineStr">
         <is>
           <t>중식대</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="3" t="n">
+      <c r="A67" s="5" t="n">
         <v>45889</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" s="4" t="inlineStr">
         <is>
           <t>(주) 삼호 SW주유소</t>
         </is>
       </c>
-      <c r="C67" t="n">
+      <c r="C67" s="4" t="n">
         <v>150000</v>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="D67" s="4" t="inlineStr">
         <is>
           <t>5352호(5톤 화물차량)경유비</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="3" t="n">
+      <c r="A68" s="5" t="n">
         <v>45890</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" s="4" t="inlineStr">
         <is>
           <t>시골추어탕</t>
         </is>
       </c>
-      <c r="C68" t="n">
+      <c r="C68" s="4" t="n">
         <v>10000</v>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="D68" s="4" t="inlineStr">
         <is>
           <t>중식대</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="3" t="n">
+      <c r="A69" s="5" t="n">
         <v>45891</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" s="4" t="inlineStr">
         <is>
           <t>제육대가</t>
         </is>
       </c>
-      <c r="C69" t="n">
+      <c r="C69" s="4" t="n">
         <v>9000</v>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="D69" s="4" t="inlineStr">
         <is>
           <t>중식대</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="3" t="n">
+      <c r="A70" s="5" t="n">
         <v>45892</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" s="4" t="inlineStr">
         <is>
           <t>작전주유소</t>
         </is>
       </c>
-      <c r="C70" t="n">
+      <c r="C70" s="4" t="n">
         <v>100000</v>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="D70" s="4" t="inlineStr">
         <is>
           <t>차량유지비(주유)</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="3" t="n">
+      <c r="A71" s="5" t="n">
         <v>45894</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" s="4" t="inlineStr">
         <is>
           <t>(주)삼원기업</t>
         </is>
       </c>
-      <c r="C71" t="n">
+      <c r="C71" s="4" t="n">
         <v>59000</v>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="D71" s="4" t="inlineStr">
         <is>
           <t>0276호 스타렉스 경유대</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="3" t="n">
+      <c r="A72" s="5" t="n">
         <v>45894</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" s="4" t="inlineStr">
         <is>
           <t>짜장면집</t>
         </is>
       </c>
-      <c r="C72" t="n">
+      <c r="C72" s="4" t="n">
         <v>23000</v>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="D72" s="4" t="inlineStr">
         <is>
           <t>중식대</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="3" t="n">
+      <c r="A73" s="5" t="n">
         <v>45894</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" s="4" t="inlineStr">
         <is>
           <t>쿠팡(주)-쿠팡(주)</t>
         </is>
       </c>
-      <c r="C73" t="n">
+      <c r="C73" s="4" t="n">
         <v>180540</v>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="D73" s="4" t="inlineStr">
         <is>
           <t>회사물품구입비</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="3" t="n">
+      <c r="A74" s="5" t="n">
         <v>45894</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" s="4" t="inlineStr">
         <is>
           <t>(주)삼원기업</t>
         </is>
       </c>
-      <c r="C74" t="n">
+      <c r="C74" s="4" t="n">
         <v>200000</v>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="D74" s="4" t="inlineStr">
         <is>
           <t>0276호 스타렉스 경유대</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="3" t="n">
+      <c r="A75" s="5" t="n">
         <v>45895</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" s="4" t="inlineStr">
         <is>
           <t>마녀분식</t>
         </is>
       </c>
-      <c r="C75" t="n">
+      <c r="C75" s="4" t="n">
         <v>10000</v>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="D75" s="4" t="inlineStr">
         <is>
           <t>중식대</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="3" t="n">
+      <c r="A76" s="5" t="n">
         <v>45896</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" s="4" t="inlineStr">
         <is>
           <t>마녀분식</t>
         </is>
       </c>
-      <c r="C76" t="n">
+      <c r="C76" s="4" t="n">
         <v>4500</v>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="D76" s="4" t="inlineStr">
         <is>
           <t>중식대</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="3" t="n">
+      <c r="A77" s="5" t="n">
         <v>45897</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" s="4" t="inlineStr">
         <is>
           <t>엘에이(LA)북창동순두부안산원시점</t>
         </is>
       </c>
-      <c r="C77" t="n">
+      <c r="C77" s="4" t="n">
         <v>27500</v>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="D77" s="4" t="inlineStr">
         <is>
           <t>중식대</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="3" t="n">
+      <c r="A78" s="5" t="n">
         <v>45898</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" s="4" t="inlineStr">
         <is>
           <t>(주)삼원기업</t>
         </is>
       </c>
-      <c r="C78" t="n">
+      <c r="C78" s="4" t="n">
         <v>100000</v>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="D78" s="4" t="inlineStr">
         <is>
           <t>0276호 스타렉스 경유대</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="3" t="n">
+      <c r="A79" s="5" t="n">
         <v>45898</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" s="4" t="inlineStr">
         <is>
           <t>맘스터치 (고잔신도시점)</t>
         </is>
       </c>
-      <c r="C79" t="n">
+      <c r="C79" s="4" t="n">
         <v>7800</v>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="D79" s="4" t="inlineStr">
         <is>
           <t>중식대</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="3" t="n">
+      <c r="A80" s="5" t="n">
         <v>45901</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" s="4" t="inlineStr">
         <is>
           <t>맥도날드 안산고잔DT점</t>
         </is>
       </c>
-      <c r="C80" t="n">
+      <c r="C80" s="4" t="n">
         <v>5800</v>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="D80" s="4" t="inlineStr">
         <is>
           <t>중식대</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="3" t="n">
+      <c r="A81" s="5" t="n">
         <v>45902</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" s="4" t="inlineStr">
         <is>
           <t>(주)삼원기업</t>
         </is>
       </c>
-      <c r="C81" t="n">
+      <c r="C81" s="4" t="n">
         <v>149900</v>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="D81" s="4" t="inlineStr">
         <is>
           <t>0276호 스타렉스 경유대</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="3" t="n">
+      <c r="A82" s="5" t="n">
         <v>45902</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" s="4" t="inlineStr">
         <is>
           <t>버거킹안산고잔점</t>
         </is>
       </c>
-      <c r="C82" t="n">
+      <c r="C82" s="4" t="n">
         <v>8700</v>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="D82" s="4" t="inlineStr">
         <is>
           <t>중식대</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="3" t="n">
+      <c r="A83" s="5" t="n">
         <v>45903</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" s="4" t="inlineStr">
         <is>
           <t>서울보증보험(주)안산지점/인터넷</t>
         </is>
       </c>
-      <c r="C83" t="n">
+      <c r="C83" s="4" t="n">
         <v>15000</v>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="D83" s="4" t="inlineStr">
         <is>
           <t>보증보험료</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="3" t="n">
+      <c r="A84" s="5" t="n">
         <v>45903</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" s="4" t="inlineStr">
         <is>
           <t>SK대로셀프주유소</t>
         </is>
       </c>
-      <c r="C84" t="n">
+      <c r="C84" s="4" t="n">
         <v>200000</v>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="D84" s="4" t="inlineStr">
         <is>
           <t>차량유지비(주유)</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="3" t="n">
+      <c r="A85" s="5" t="n">
         <v>45904</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" s="4" t="inlineStr">
         <is>
           <t>명품달인김밥</t>
         </is>
       </c>
-      <c r="C85" t="n">
+      <c r="C85" s="4" t="n">
         <v>13400</v>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="D85" s="4" t="inlineStr">
         <is>
           <t>중식대</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="3" t="n">
+      <c r="A86" s="5" t="n">
         <v>45904</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" s="4" t="inlineStr">
         <is>
           <t>쿠팡(주)-쿠팡(주)</t>
         </is>
       </c>
-      <c r="C86" t="n">
+      <c r="C86" s="4" t="n">
         <v>32000</v>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="D86" s="4" t="inlineStr">
         <is>
           <t>회사물품구입비</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="3" t="n">
+      <c r="A87" s="5" t="n">
         <v>45905</v>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B87" s="4" t="inlineStr">
         <is>
           <t>엘에이(LA)북창동순두부안산원시점</t>
         </is>
       </c>
-      <c r="C87" t="n">
+      <c r="C87" s="4" t="n">
         <v>39000</v>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="D87" s="4" t="inlineStr">
         <is>
           <t>중식대</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="3" t="n">
+      <c r="A88" s="5" t="n">
         <v>45906</v>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" s="4" t="inlineStr">
         <is>
           <t>에이치디현대오일뱅크㈜직영 선암셀프주유</t>
         </is>
       </c>
-      <c r="C88" t="n">
+      <c r="C88" s="4" t="n">
         <v>90000</v>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="D88" s="4" t="inlineStr">
         <is>
           <t>차량유지비(주유)</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="3" t="n">
+      <c r="A89" s="5" t="n">
         <v>45908</v>
       </c>
-      <c r="B89" t="inlineStr">
+      <c r="B89" s="4" t="inlineStr">
         <is>
           <t>한솥</t>
         </is>
       </c>
-      <c r="C89" t="n">
+      <c r="C89" s="4" t="n">
         <v>8000</v>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="D89" s="4" t="inlineStr">
         <is>
           <t>중식대</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="3" t="n">
+      <c r="A90" s="5" t="n">
         <v>45909</v>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" s="4" t="inlineStr">
         <is>
           <t>한솥</t>
         </is>
       </c>
-      <c r="C90" t="n">
+      <c r="C90" s="4" t="n">
         <v>9300</v>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="D90" s="4" t="inlineStr">
         <is>
           <t>중식대</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="3" t="n">
+      <c r="A91" s="5" t="n">
         <v>45910</v>
       </c>
-      <c r="B91" t="inlineStr">
+      <c r="B91" s="4" t="inlineStr">
         <is>
           <t>명품달인김밥</t>
         </is>
       </c>
-      <c r="C91" t="n">
+      <c r="C91" s="4" t="n">
         <v>8300</v>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="D91" s="4" t="inlineStr">
         <is>
           <t>중식대</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="3" t="n">
+      <c r="A92" s="5" t="n">
         <v>45911</v>
       </c>
-      <c r="B92" t="inlineStr">
+      <c r="B92" s="4" t="inlineStr">
         <is>
           <t>서안산 IC주유소</t>
         </is>
       </c>
-      <c r="C92" t="n">
+      <c r="C92" s="4" t="n">
         <v>88000</v>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="D92" s="4" t="inlineStr">
         <is>
           <t>0276호 스타렉스 경유대</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="3" t="n">
+      <c r="A93" s="5" t="n">
         <v>45912</v>
       </c>
-      <c r="B93" t="inlineStr">
+      <c r="B93" s="4" t="inlineStr">
         <is>
           <t>(주)삼원기업</t>
         </is>
       </c>
-      <c r="C93" t="n">
+      <c r="C93" s="4" t="n">
         <v>140000</v>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="D93" s="4" t="inlineStr">
         <is>
           <t>0276호 스타렉스 경유대</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="3" t="n">
+      <c r="A94" s="5" t="n">
         <v>45913</v>
       </c>
-      <c r="B94" t="inlineStr">
+      <c r="B94" s="4" t="inlineStr">
         <is>
           <t>자동결제-(주)한글과컴퓨터</t>
         </is>
       </c>
-      <c r="C94" t="n">
+      <c r="C94" s="4" t="n">
         <v>10900</v>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="D94" s="4" t="inlineStr">
         <is>
           <t>사용료</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="3" t="n">
+      <c r="A95" s="5" t="n">
         <v>45915</v>
       </c>
-      <c r="B95" t="inlineStr">
+      <c r="B95" s="4" t="inlineStr">
         <is>
           <t>한식뷔페칠성고잔점</t>
         </is>
       </c>
-      <c r="C95" t="n">
+      <c r="C95" s="4" t="n">
         <v>9000</v>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="D95" s="4" t="inlineStr">
         <is>
           <t>중식대</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="3" t="n">
+      <c r="A96" s="5" t="n">
         <v>45916</v>
       </c>
-      <c r="B96" t="inlineStr">
+      <c r="B96" s="4" t="inlineStr">
         <is>
           <t>맥도날드 안산고잔DT점</t>
         </is>
       </c>
-      <c r="C96" t="n">
+      <c r="C96" s="4" t="n">
         <v>8100</v>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="D96" s="4" t="inlineStr">
         <is>
           <t>중식대</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="3" t="n">
+      <c r="A97" s="5" t="n">
         <v>45917</v>
       </c>
-      <c r="B97" t="inlineStr">
+      <c r="B97" s="4" t="inlineStr">
         <is>
           <t>스시다이와 안산점</t>
         </is>
       </c>
-      <c r="C97" t="n">
+      <c r="C97" s="4" t="n">
         <v>44880</v>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="D97" s="4" t="inlineStr">
         <is>
           <t>중식대</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="3" t="n">
+      <c r="A98" s="5" t="n">
         <v>45918</v>
       </c>
-      <c r="B98" t="inlineStr">
+      <c r="B98" s="4" t="inlineStr">
         <is>
           <t>(주)삼원기업</t>
         </is>
       </c>
-      <c r="C98" t="n">
+      <c r="C98" s="4" t="n">
         <v>62000</v>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="D98" s="4" t="inlineStr">
         <is>
           <t>0276호 스타렉스 경유대</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="3" t="n">
+      <c r="A99" s="5" t="n">
         <v>45918</v>
       </c>
-      <c r="B99" t="inlineStr">
+      <c r="B99" s="4" t="inlineStr">
         <is>
           <t>명품달인김밥</t>
         </is>
       </c>
-      <c r="C99" t="n">
+      <c r="C99" s="4" t="n">
         <v>7300</v>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="D99" s="4" t="inlineStr">
         <is>
           <t>중식대</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="3" t="n">
+      <c r="A100" s="5" t="n">
         <v>45919</v>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B100" s="4" t="inlineStr">
         <is>
           <t>쿠팡-쿠팡(주)</t>
         </is>
       </c>
-      <c r="C100" t="n">
+      <c r="C100" s="4" t="n">
         <v>127900</v>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="D100" s="4" t="inlineStr">
         <is>
           <t>회사물품구입비</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="3" t="n">
+      <c r="A101" s="5" t="n">
         <v>45919</v>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B101" s="4" t="inlineStr">
         <is>
           <t>시골추어탕</t>
         </is>
       </c>
-      <c r="C101" t="n">
+      <c r="C101" s="4" t="n">
         <v>10000</v>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="D101" s="4" t="inlineStr">
         <is>
           <t>중식대</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="3" t="n">
+      <c r="A102" s="5" t="n">
         <v>45920</v>
       </c>
-      <c r="B102" t="inlineStr">
+      <c r="B102" s="4" t="inlineStr">
         <is>
           <t>(주)동원석유 행복주유소</t>
         </is>
       </c>
-      <c r="C102" t="n">
+      <c r="C102" s="4" t="n">
         <v>90000</v>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="D102" s="4" t="inlineStr">
         <is>
           <t>차량유지비(주유)</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="3" t="n">
+      <c r="A103" s="5" t="n">
         <v>45922</v>
       </c>
-      <c r="B103" t="inlineStr">
+      <c r="B103" s="4" t="inlineStr">
         <is>
           <t>공일돈까스 안산MTV점</t>
         </is>
       </c>
-      <c r="C103" t="n">
+      <c r="C103" s="4" t="n">
         <v>14500</v>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="D103" s="4" t="inlineStr">
         <is>
           <t>중식대</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="3" t="n">
+      <c r="A104" s="5" t="n">
         <v>45923</v>
       </c>
-      <c r="B104" t="inlineStr">
+      <c r="B104" s="4" t="inlineStr">
         <is>
           <t>국세-부가가치세</t>
         </is>
       </c>
-      <c r="C104" t="n">
+      <c r="C104" s="4" t="n">
         <v>45345958</v>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="D104" s="4" t="inlineStr">
         <is>
           <t>국세 납부</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="3" t="n">
+      <c r="A105" s="5" t="n">
         <v>45923</v>
       </c>
-      <c r="B105" t="inlineStr">
+      <c r="B105" s="4" t="inlineStr">
         <is>
           <t>MTV스마트주유소</t>
         </is>
       </c>
-      <c r="C105" t="n">
+      <c r="C105" s="4" t="n">
         <v>96000</v>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="D105" s="4" t="inlineStr">
         <is>
           <t>차량유지비(주유)</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="3" t="n">
+      <c r="A106" s="5" t="n">
         <v>45923</v>
       </c>
-      <c r="B106" t="inlineStr">
+      <c r="B106" s="4" t="inlineStr">
         <is>
           <t>안산단원목내457A</t>
         </is>
       </c>
-      <c r="C106" t="n">
+      <c r="C106" s="4" t="n">
         <v>7810</v>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="D106" s="4" t="inlineStr">
         <is>
           <t>차량유지비(기타)</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="3" t="n">
+      <c r="A107" s="5" t="n">
         <v>45923</v>
       </c>
-      <c r="B107" t="inlineStr">
+      <c r="B107" s="4" t="inlineStr">
         <is>
           <t>주식회사 동신자동차정비</t>
         </is>
       </c>
-      <c r="C107" t="n">
+      <c r="C107" s="4" t="n">
         <v>60000</v>
       </c>
-      <c r="D107" t="inlineStr">
+      <c r="D107" s="4" t="inlineStr">
         <is>
           <t>6104호 자동차검사비</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="3" t="n">
+      <c r="A108" s="5" t="n">
         <v>45923</v>
       </c>
-      <c r="B108" t="inlineStr">
+      <c r="B108" s="4" t="inlineStr">
         <is>
           <t>본죽 앤 비빔밥 카페(cafe)</t>
         </is>
       </c>
-      <c r="C108" t="n">
+      <c r="C108" s="4" t="n">
         <v>12500</v>
       </c>
-      <c r="D108" t="inlineStr">
+      <c r="D108" s="4" t="inlineStr">
         <is>
           <t>중식대</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="3" t="n">
+      <c r="A109" s="5" t="n">
         <v>45923</v>
       </c>
-      <c r="B109" t="inlineStr">
+      <c r="B109" s="4" t="inlineStr">
         <is>
           <t>쿠팡(주)-쿠팡(주)</t>
         </is>
       </c>
-      <c r="C109" t="n">
+      <c r="C109" s="4" t="n">
         <v>11800</v>
       </c>
-      <c r="D109" t="inlineStr">
+      <c r="D109" s="4" t="inlineStr">
         <is>
           <t>회사물품구입비</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="3" t="n">
+      <c r="A110" s="5" t="n">
         <v>45924</v>
       </c>
-      <c r="B110" t="inlineStr">
+      <c r="B110" s="4" t="inlineStr">
         <is>
           <t>서안산 IC주유소</t>
         </is>
       </c>
-      <c r="C110" t="n">
+      <c r="C110" s="4" t="n">
         <v>81000</v>
       </c>
-      <c r="D110" t="inlineStr">
+      <c r="D110" s="4" t="inlineStr">
         <is>
           <t>0276호 스타렉스 경유대</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="3" t="n">
+      <c r="A111" s="5" t="n">
         <v>45924</v>
       </c>
-      <c r="B111" t="inlineStr">
+      <c r="B111" s="4" t="inlineStr">
         <is>
           <t>맥도날드 안산고잔DT점</t>
         </is>
       </c>
-      <c r="C111" t="n">
+      <c r="C111" s="4" t="n">
         <v>8100</v>
       </c>
-      <c r="D111" t="inlineStr">
+      <c r="D111" s="4" t="inlineStr">
         <is>
           <t>중식대</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="3" t="n">
+      <c r="A112" s="5" t="n">
         <v>45925</v>
       </c>
-      <c r="B112" t="inlineStr">
+      <c r="B112" s="4" t="inlineStr">
         <is>
           <t>한솥</t>
         </is>
       </c>
-      <c r="C112" t="n">
+      <c r="C112" s="4" t="n">
         <v>7600</v>
       </c>
-      <c r="D112" t="inlineStr">
+      <c r="D112" s="4" t="inlineStr">
         <is>
           <t>중식대</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="3" t="n">
+      <c r="A113" s="5" t="n">
         <v>45925</v>
       </c>
-      <c r="B113" t="inlineStr">
+      <c r="B113" s="4" t="inlineStr">
         <is>
           <t>(주)삼원기업</t>
         </is>
       </c>
-      <c r="C113" t="n">
+      <c r="C113" s="4" t="n">
         <v>128000</v>
       </c>
-      <c r="D113" t="inlineStr">
+      <c r="D113" s="4" t="inlineStr">
         <is>
           <t>0276호 스타렉스 경유대</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="3" t="n">
+      <c r="A114" s="5" t="n">
         <v>45926</v>
       </c>
-      <c r="B114" t="inlineStr">
+      <c r="B114" s="4" t="inlineStr">
         <is>
           <t>안산 단원 성곡 523 경동택배</t>
         </is>
       </c>
-      <c r="C114" t="n">
+      <c r="C114" s="4" t="n">
         <v>8360</v>
       </c>
-      <c r="D114" t="inlineStr">
+      <c r="D114" s="4" t="inlineStr">
         <is>
           <t>수수료</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="3" t="n">
+      <c r="A115" s="5" t="n">
         <v>45926</v>
       </c>
-      <c r="B115" t="inlineStr">
+      <c r="B115" s="4" t="inlineStr">
         <is>
           <t>큰맘할매순대국 안산시청점</t>
         </is>
       </c>
-      <c r="C115" t="n">
+      <c r="C115" s="4" t="n">
         <v>12000</v>
       </c>
-      <c r="D115" t="inlineStr">
+      <c r="D115" s="4" t="inlineStr">
         <is>
           <t>중식대</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="3" t="n">
+      <c r="A116" s="5" t="n">
         <v>45929</v>
       </c>
-      <c r="B116" t="inlineStr">
+      <c r="B116" s="4" t="inlineStr">
         <is>
           <t>김가네가마솥설농탕</t>
         </is>
       </c>
-      <c r="C116" t="n">
+      <c r="C116" s="4" t="n">
         <v>34000</v>
       </c>
-      <c r="D116" t="inlineStr">
+      <c r="D116" s="4" t="inlineStr">
         <is>
           <t>중식대</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="3" t="n">
+      <c r="A117" s="5" t="n">
         <v>45929</v>
       </c>
-      <c r="B117" t="inlineStr">
+      <c r="B117" s="4" t="inlineStr">
         <is>
           <t>(주)삼원기업</t>
         </is>
       </c>
-      <c r="C117" t="n">
+      <c r="C117" s="4" t="n">
         <v>200000</v>
       </c>
-      <c r="D117" t="inlineStr">
+      <c r="D117" s="4" t="inlineStr">
         <is>
           <t>0276호 스타렉스 경유대</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="3" t="n">
+      <c r="A118" s="5" t="n">
         <v>45930</v>
       </c>
-      <c r="B118" t="inlineStr">
+      <c r="B118" s="4" t="inlineStr">
         <is>
           <t>할부선결제</t>
         </is>
       </c>
-      <c r="C118" t="n">
+      <c r="C118" s="4" t="n">
         <v>-45345958</v>
       </c>
-      <c r="D118" t="inlineStr">
+      <c r="D118" s="4" t="inlineStr">
         <is>
           <t>기타</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="3" t="n">
+      <c r="A119" s="5" t="n">
         <v>45930</v>
       </c>
-      <c r="B119" t="inlineStr">
+      <c r="B119" s="4" t="inlineStr">
         <is>
           <t>큰맘할매순대국 안산원시역점</t>
         </is>
       </c>
-      <c r="C119" t="n">
+      <c r="C119" s="4" t="n">
         <v>30000</v>
       </c>
-      <c r="D119" t="inlineStr">
+      <c r="D119" s="4" t="inlineStr">
         <is>
           <t>중식대</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D119"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -2601,10 +2639,16 @@
   <dimension ref="A1:D72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="17.4"/>
+  <cols>
+    <col width="18.8984375" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="33.59765625" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="8.59765625" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="15.3984375" bestFit="1" customWidth="1" min="4" max="4"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -2629,7 +2673,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="n">
+      <c r="A2" s="6" t="n">
         <v>45810</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -2647,7 +2691,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="n">
+      <c r="A3" s="6" t="n">
         <v>45839</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -2665,7 +2709,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="n">
+      <c r="A4" s="6" t="n">
         <v>45839</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -2683,7 +2727,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="n">
+      <c r="A5" s="6" t="n">
         <v>45840</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -2701,7 +2745,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="n">
+      <c r="A6" s="6" t="n">
         <v>45840</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -2719,7 +2763,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="n">
+      <c r="A7" s="6" t="n">
         <v>45843</v>
       </c>
       <c r="B7" t="inlineStr">
@@ -2737,7 +2781,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="n">
+      <c r="A8" s="6" t="n">
         <v>45849</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -2755,7 +2799,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="n">
+      <c r="A9" s="6" t="n">
         <v>45851</v>
       </c>
       <c r="B9" t="inlineStr">
@@ -2773,7 +2817,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="n">
+      <c r="A10" s="6" t="n">
         <v>45852</v>
       </c>
       <c r="B10" t="inlineStr">
@@ -2791,7 +2835,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="n">
+      <c r="A11" s="6" t="n">
         <v>45853</v>
       </c>
       <c r="B11" t="inlineStr">
@@ -2809,7 +2853,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="n">
+      <c r="A12" s="6" t="n">
         <v>45854</v>
       </c>
       <c r="B12" t="inlineStr">
@@ -2827,7 +2871,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="n">
+      <c r="A13" s="6" t="n">
         <v>45854</v>
       </c>
       <c r="B13" t="inlineStr">
@@ -2845,7 +2889,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="n">
+      <c r="A14" s="6" t="n">
         <v>45855</v>
       </c>
       <c r="B14" t="inlineStr">
@@ -2863,7 +2907,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="n">
+      <c r="A15" s="6" t="n">
         <v>45856</v>
       </c>
       <c r="B15" t="inlineStr">
@@ -2881,7 +2925,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="n">
+      <c r="A16" s="6" t="n">
         <v>45856</v>
       </c>
       <c r="B16" t="inlineStr">
@@ -2899,7 +2943,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="n">
+      <c r="A17" s="6" t="n">
         <v>45856</v>
       </c>
       <c r="B17" t="inlineStr">
@@ -2917,7 +2961,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="n">
+      <c r="A18" s="6" t="n">
         <v>45857</v>
       </c>
       <c r="B18" t="inlineStr">
@@ -2935,7 +2979,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="n">
+      <c r="A19" s="6" t="n">
         <v>45858</v>
       </c>
       <c r="B19" t="inlineStr">
@@ -2953,7 +2997,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="n">
+      <c r="A20" s="6" t="n">
         <v>45861</v>
       </c>
       <c r="B20" t="inlineStr">
@@ -2971,7 +3015,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="n">
+      <c r="A21" s="6" t="n">
         <v>45862</v>
       </c>
       <c r="B21" t="inlineStr">
@@ -2989,7 +3033,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="n">
+      <c r="A22" s="6" t="n">
         <v>45862</v>
       </c>
       <c r="B22" t="inlineStr">
@@ -3007,7 +3051,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="3" t="n">
+      <c r="A23" s="6" t="n">
         <v>45863</v>
       </c>
       <c r="B23" t="inlineStr">
@@ -3025,7 +3069,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="n">
+      <c r="A24" s="6" t="n">
         <v>45863</v>
       </c>
       <c r="B24" t="inlineStr">
@@ -3043,7 +3087,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="3" t="n">
+      <c r="A25" s="6" t="n">
         <v>45864</v>
       </c>
       <c r="B25" t="inlineStr">
@@ -3061,7 +3105,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="3" t="n">
+      <c r="A26" s="6" t="n">
         <v>45865</v>
       </c>
       <c r="B26" t="inlineStr">
@@ -3079,7 +3123,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="3" t="n">
+      <c r="A27" s="6" t="n">
         <v>45865</v>
       </c>
       <c r="B27" t="inlineStr">
@@ -3097,7 +3141,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="3" t="n">
+      <c r="A28" s="6" t="n">
         <v>45866</v>
       </c>
       <c r="B28" t="inlineStr">
@@ -3115,7 +3159,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="3" t="n">
+      <c r="A29" s="6" t="n">
         <v>45867</v>
       </c>
       <c r="B29" t="inlineStr">
@@ -3133,7 +3177,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="3" t="n">
+      <c r="A30" s="6" t="n">
         <v>45874</v>
       </c>
       <c r="B30" t="inlineStr">
@@ -3151,7 +3195,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="3" t="n">
+      <c r="A31" s="6" t="n">
         <v>45874</v>
       </c>
       <c r="B31" t="inlineStr">
@@ -3169,7 +3213,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="3" t="n">
+      <c r="A32" s="6" t="n">
         <v>45875</v>
       </c>
       <c r="B32" t="inlineStr">
@@ -3187,7 +3231,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="3" t="n">
+      <c r="A33" s="6" t="n">
         <v>45875</v>
       </c>
       <c r="B33" t="inlineStr">
@@ -3205,7 +3249,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="3" t="n">
+      <c r="A34" s="6" t="n">
         <v>45878</v>
       </c>
       <c r="B34" t="inlineStr">
@@ -3223,7 +3267,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="3" t="n">
+      <c r="A35" s="6" t="n">
         <v>45878</v>
       </c>
       <c r="B35" t="inlineStr">
@@ -3241,7 +3285,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="3" t="n">
+      <c r="A36" s="6" t="n">
         <v>45879</v>
       </c>
       <c r="B36" t="inlineStr">
@@ -3259,7 +3303,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="3" t="n">
+      <c r="A37" s="6" t="n">
         <v>45882</v>
       </c>
       <c r="B37" t="inlineStr">
@@ -3277,7 +3321,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="3" t="n">
+      <c r="A38" s="6" t="n">
         <v>45882</v>
       </c>
       <c r="B38" t="inlineStr">
@@ -3295,7 +3339,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="3" t="n">
+      <c r="A39" s="6" t="n">
         <v>45883</v>
       </c>
       <c r="B39" t="inlineStr">
@@ -3313,7 +3357,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="3" t="n">
+      <c r="A40" s="6" t="n">
         <v>45883</v>
       </c>
       <c r="B40" t="inlineStr">
@@ -3331,7 +3375,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="3" t="n">
+      <c r="A41" s="6" t="n">
         <v>45883</v>
       </c>
       <c r="B41" t="inlineStr">
@@ -3349,7 +3393,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="3" t="n">
+      <c r="A42" s="6" t="n">
         <v>45887</v>
       </c>
       <c r="B42" t="inlineStr">
@@ -3367,7 +3411,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="3" t="n">
+      <c r="A43" s="6" t="n">
         <v>45887</v>
       </c>
       <c r="B43" t="inlineStr">
@@ -3385,7 +3429,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="3" t="n">
+      <c r="A44" s="6" t="n">
         <v>45887</v>
       </c>
       <c r="B44" t="inlineStr">
@@ -3403,7 +3447,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="3" t="n">
+      <c r="A45" s="6" t="n">
         <v>45890</v>
       </c>
       <c r="B45" t="inlineStr">
@@ -3421,7 +3465,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="3" t="n">
+      <c r="A46" s="6" t="n">
         <v>45891</v>
       </c>
       <c r="B46" t="inlineStr">
@@ -3439,7 +3483,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="3" t="n">
+      <c r="A47" s="6" t="n">
         <v>45892</v>
       </c>
       <c r="B47" t="inlineStr">
@@ -3457,7 +3501,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="3" t="n">
+      <c r="A48" s="6" t="n">
         <v>45894</v>
       </c>
       <c r="B48" t="inlineStr">
@@ -3475,7 +3519,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="3" t="n">
+      <c r="A49" s="6" t="n">
         <v>45900</v>
       </c>
       <c r="B49" t="inlineStr">
@@ -3493,7 +3537,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="3" t="n">
+      <c r="A50" s="6" t="n">
         <v>45900</v>
       </c>
       <c r="B50" t="inlineStr">
@@ -3511,7 +3555,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="3" t="n">
+      <c r="A51" s="6" t="n">
         <v>45901</v>
       </c>
       <c r="B51" t="inlineStr">
@@ -3529,7 +3573,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="3" t="n">
+      <c r="A52" s="6" t="n">
         <v>45902</v>
       </c>
       <c r="B52" t="inlineStr">
@@ -3547,7 +3591,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="3" t="n">
+      <c r="A53" s="6" t="n">
         <v>45902</v>
       </c>
       <c r="B53" t="inlineStr">
@@ -3565,7 +3609,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="3" t="n">
+      <c r="A54" s="6" t="n">
         <v>45903</v>
       </c>
       <c r="B54" t="inlineStr">
@@ -3583,7 +3627,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="3" t="n">
+      <c r="A55" s="6" t="n">
         <v>45904</v>
       </c>
       <c r="B55" t="inlineStr">
@@ -3601,7 +3645,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="3" t="n">
+      <c r="A56" s="6" t="n">
         <v>45909</v>
       </c>
       <c r="B56" t="inlineStr">
@@ -3619,7 +3663,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="3" t="n">
+      <c r="A57" s="6" t="n">
         <v>45910</v>
       </c>
       <c r="B57" t="inlineStr">
@@ -3637,7 +3681,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="3" t="n">
+      <c r="A58" s="6" t="n">
         <v>45911</v>
       </c>
       <c r="B58" t="inlineStr">
@@ -3655,7 +3699,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="3" t="n">
+      <c r="A59" s="6" t="n">
         <v>45913</v>
       </c>
       <c r="B59" t="inlineStr">
@@ -3673,7 +3717,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="3" t="n">
+      <c r="A60" s="6" t="n">
         <v>45913</v>
       </c>
       <c r="B60" t="inlineStr">
@@ -3691,7 +3735,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="3" t="n">
+      <c r="A61" s="6" t="n">
         <v>45915</v>
       </c>
       <c r="B61" t="inlineStr">
@@ -3709,7 +3753,7 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="3" t="n">
+      <c r="A62" s="6" t="n">
         <v>45916</v>
       </c>
       <c r="B62" t="inlineStr">
@@ -3727,7 +3771,7 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="3" t="n">
+      <c r="A63" s="6" t="n">
         <v>45918</v>
       </c>
       <c r="B63" t="inlineStr">
@@ -3745,7 +3789,7 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="3" t="n">
+      <c r="A64" s="6" t="n">
         <v>45919</v>
       </c>
       <c r="B64" t="inlineStr">
@@ -3763,7 +3807,7 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="3" t="n">
+      <c r="A65" s="6" t="n">
         <v>45922</v>
       </c>
       <c r="B65" t="inlineStr">
@@ -3781,7 +3825,7 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="3" t="n">
+      <c r="A66" s="6" t="n">
         <v>45923</v>
       </c>
       <c r="B66" t="inlineStr">
@@ -3799,7 +3843,7 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="3" t="n">
+      <c r="A67" s="6" t="n">
         <v>45923</v>
       </c>
       <c r="B67" t="inlineStr">
@@ -3817,7 +3861,7 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="3" t="n">
+      <c r="A68" s="6" t="n">
         <v>45924</v>
       </c>
       <c r="B68" t="inlineStr">
@@ -3835,7 +3879,7 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="3" t="n">
+      <c r="A69" s="6" t="n">
         <v>45925</v>
       </c>
       <c r="B69" t="inlineStr">
@@ -3853,7 +3897,7 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="3" t="n">
+      <c r="A70" s="6" t="n">
         <v>45927</v>
       </c>
       <c r="B70" t="inlineStr">
@@ -3871,7 +3915,7 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="3" t="n">
+      <c r="A71" s="6" t="n">
         <v>45928</v>
       </c>
       <c r="B71" t="inlineStr">
@@ -3889,7 +3933,7 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="3" t="n">
+      <c r="A72" s="6" t="n">
         <v>45929</v>
       </c>
       <c r="B72" t="inlineStr">
@@ -3907,6 +3951,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D72"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -3920,10 +3965,16 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="17.4"/>
+  <cols>
+    <col width="18.8984375" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="16.5" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="8.59765625" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="15.3984375" bestFit="1" customWidth="1" min="4" max="4"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -3948,7 +3999,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="n">
+      <c r="A2" s="6" t="n">
         <v>45839</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -3966,7 +4017,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="n">
+      <c r="A3" s="6" t="n">
         <v>45846</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -3984,7 +4035,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="n">
+      <c r="A4" s="6" t="n">
         <v>45852</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -4002,7 +4053,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="n">
+      <c r="A5" s="6" t="n">
         <v>45853</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -4020,7 +4071,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="n">
+      <c r="A6" s="6" t="n">
         <v>45860</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -4038,7 +4089,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="n">
+      <c r="A7" s="6" t="n">
         <v>45861</v>
       </c>
       <c r="B7" t="inlineStr">
@@ -4056,7 +4107,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="n">
+      <c r="A8" s="6" t="n">
         <v>45867</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -4074,7 +4125,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="n">
+      <c r="A9" s="6" t="n">
         <v>45880</v>
       </c>
       <c r="B9" t="inlineStr">
@@ -4092,7 +4143,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="n">
+      <c r="A10" s="6" t="n">
         <v>45881</v>
       </c>
       <c r="B10" t="inlineStr">
@@ -4110,7 +4161,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="n">
+      <c r="A11" s="6" t="n">
         <v>45882</v>
       </c>
       <c r="B11" t="inlineStr">
@@ -4128,7 +4179,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="n">
+      <c r="A12" s="6" t="n">
         <v>45887</v>
       </c>
       <c r="B12" t="inlineStr">
@@ -4146,7 +4197,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="n">
+      <c r="A13" s="6" t="n">
         <v>45888</v>
       </c>
       <c r="B13" t="inlineStr">
@@ -4164,7 +4215,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="n">
+      <c r="A14" s="6" t="n">
         <v>45895</v>
       </c>
       <c r="B14" t="inlineStr">
@@ -4182,7 +4233,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="n">
+      <c r="A15" s="6" t="n">
         <v>45898</v>
       </c>
       <c r="B15" t="inlineStr">
@@ -4200,7 +4251,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="n">
+      <c r="A16" s="6" t="n">
         <v>45901</v>
       </c>
       <c r="B16" t="inlineStr">
@@ -4218,7 +4269,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="n">
+      <c r="A17" s="6" t="n">
         <v>45902</v>
       </c>
       <c r="B17" t="inlineStr">
@@ -4236,7 +4287,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="n">
+      <c r="A18" s="6" t="n">
         <v>45903</v>
       </c>
       <c r="B18" t="inlineStr">
@@ -4254,7 +4305,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="n">
+      <c r="A19" s="6" t="n">
         <v>45908</v>
       </c>
       <c r="B19" t="inlineStr">
@@ -4272,7 +4323,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="n">
+      <c r="A20" s="6" t="n">
         <v>45909</v>
       </c>
       <c r="B20" t="inlineStr">
@@ -4290,7 +4341,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="n">
+      <c r="A21" s="6" t="n">
         <v>45915</v>
       </c>
       <c r="B21" t="inlineStr">
@@ -4308,7 +4359,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="n">
+      <c r="A22" s="6" t="n">
         <v>45916</v>
       </c>
       <c r="B22" t="inlineStr">
@@ -4326,7 +4377,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="3" t="n">
+      <c r="A23" s="6" t="n">
         <v>45922</v>
       </c>
       <c r="B23" t="inlineStr">
@@ -4344,7 +4395,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="n">
+      <c r="A24" s="6" t="n">
         <v>45923</v>
       </c>
       <c r="B24" t="inlineStr">
@@ -4362,7 +4413,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="3" t="n">
+      <c r="A25" s="6" t="n">
         <v>45930</v>
       </c>
       <c r="B25" t="inlineStr">
@@ -4380,6 +4431,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D25"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -4393,10 +4445,16 @@
   <dimension ref="A1:D61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" sqref="A1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="17.4"/>
+  <cols>
+    <col width="18.8984375" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="35.8984375" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="8.59765625" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="27" bestFit="1" customWidth="1" min="4" max="4"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -4421,7 +4479,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="n">
+      <c r="A2" s="6" t="n">
         <v>45810</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -4439,7 +4497,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="n">
+      <c r="A3" s="6" t="n">
         <v>45839</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -4457,7 +4515,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="n">
+      <c r="A4" s="6" t="n">
         <v>45839</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -4475,7 +4533,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="n">
+      <c r="A5" s="6" t="n">
         <v>45841</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -4493,7 +4551,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="n">
+      <c r="A6" s="6" t="n">
         <v>45845</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -4511,7 +4569,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="n">
+      <c r="A7" s="6" t="n">
         <v>45846</v>
       </c>
       <c r="B7" t="inlineStr">
@@ -4529,7 +4587,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="n">
+      <c r="A8" s="6" t="n">
         <v>45848</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -4547,7 +4605,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="n">
+      <c r="A9" s="6" t="n">
         <v>45848</v>
       </c>
       <c r="B9" t="inlineStr">
@@ -4565,7 +4623,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="n">
+      <c r="A10" s="6" t="n">
         <v>45850</v>
       </c>
       <c r="B10" t="inlineStr">
@@ -4583,7 +4641,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="n">
+      <c r="A11" s="6" t="n">
         <v>45853</v>
       </c>
       <c r="B11" t="inlineStr">
@@ -4601,7 +4659,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="n">
+      <c r="A12" s="6" t="n">
         <v>45854</v>
       </c>
       <c r="B12" t="inlineStr">
@@ -4619,7 +4677,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="n">
+      <c r="A13" s="6" t="n">
         <v>45854</v>
       </c>
       <c r="B13" t="inlineStr">
@@ -4637,7 +4695,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="n">
+      <c r="A14" s="6" t="n">
         <v>45856</v>
       </c>
       <c r="B14" t="inlineStr">
@@ -4655,7 +4713,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="n">
+      <c r="A15" s="6" t="n">
         <v>45857</v>
       </c>
       <c r="B15" t="inlineStr">
@@ -4673,7 +4731,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="n">
+      <c r="A16" s="6" t="n">
         <v>45860</v>
       </c>
       <c r="B16" t="inlineStr">
@@ -4691,7 +4749,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="n">
+      <c r="A17" s="6" t="n">
         <v>45860</v>
       </c>
       <c r="B17" t="inlineStr">
@@ -4709,7 +4767,7 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="n">
+      <c r="A18" s="6" t="n">
         <v>45861</v>
       </c>
       <c r="B18" t="inlineStr">
@@ -4727,7 +4785,7 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="n">
+      <c r="A19" s="6" t="n">
         <v>45864</v>
       </c>
       <c r="B19" t="inlineStr">
@@ -4745,7 +4803,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="n">
+      <c r="A20" s="6" t="n">
         <v>45868</v>
       </c>
       <c r="B20" t="inlineStr">
@@ -4763,7 +4821,7 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="n">
+      <c r="A21" s="6" t="n">
         <v>45868</v>
       </c>
       <c r="B21" t="inlineStr">
@@ -4781,7 +4839,7 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="n">
+      <c r="A22" s="6" t="n">
         <v>45872</v>
       </c>
       <c r="B22" t="inlineStr">
@@ -4799,7 +4857,7 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="3" t="n">
+      <c r="A23" s="6" t="n">
         <v>45872</v>
       </c>
       <c r="B23" t="inlineStr">
@@ -4817,7 +4875,7 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="n">
+      <c r="A24" s="6" t="n">
         <v>45876</v>
       </c>
       <c r="B24" t="inlineStr">
@@ -4835,7 +4893,7 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="3" t="n">
+      <c r="A25" s="6" t="n">
         <v>45877</v>
       </c>
       <c r="B25" t="inlineStr">
@@ -4853,7 +4911,7 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="3" t="n">
+      <c r="A26" s="6" t="n">
         <v>45877</v>
       </c>
       <c r="B26" t="inlineStr">
@@ -4871,7 +4929,7 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="3" t="n">
+      <c r="A27" s="6" t="n">
         <v>45878</v>
       </c>
       <c r="B27" t="inlineStr">
@@ -4889,7 +4947,7 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="3" t="n">
+      <c r="A28" s="6" t="n">
         <v>45881</v>
       </c>
       <c r="B28" t="inlineStr">
@@ -4907,7 +4965,7 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="3" t="n">
+      <c r="A29" s="6" t="n">
         <v>45881</v>
       </c>
       <c r="B29" t="inlineStr">
@@ -4925,7 +4983,7 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="3" t="n">
+      <c r="A30" s="6" t="n">
         <v>45885</v>
       </c>
       <c r="B30" t="inlineStr">
@@ -4943,7 +5001,7 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="3" t="n">
+      <c r="A31" s="6" t="n">
         <v>45885</v>
       </c>
       <c r="B31" t="inlineStr">
@@ -4961,7 +5019,7 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="3" t="n">
+      <c r="A32" s="6" t="n">
         <v>45888</v>
       </c>
       <c r="B32" t="inlineStr">
@@ -4979,7 +5037,7 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="3" t="n">
+      <c r="A33" s="6" t="n">
         <v>45888</v>
       </c>
       <c r="B33" t="inlineStr">
@@ -4997,7 +5055,7 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="3" t="n">
+      <c r="A34" s="6" t="n">
         <v>45889</v>
       </c>
       <c r="B34" t="inlineStr">
@@ -5015,7 +5073,7 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="3" t="n">
+      <c r="A35" s="6" t="n">
         <v>45889</v>
       </c>
       <c r="B35" t="inlineStr">
@@ -5033,7 +5091,7 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="3" t="n">
+      <c r="A36" s="6" t="n">
         <v>45893</v>
       </c>
       <c r="B36" t="inlineStr">
@@ -5051,7 +5109,7 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="3" t="n">
+      <c r="A37" s="6" t="n">
         <v>45897</v>
       </c>
       <c r="B37" t="inlineStr">
@@ -5069,7 +5127,7 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="3" t="n">
+      <c r="A38" s="6" t="n">
         <v>45897</v>
       </c>
       <c r="B38" t="inlineStr">
@@ -5087,7 +5145,7 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="3" t="n">
+      <c r="A39" s="6" t="n">
         <v>45898</v>
       </c>
       <c r="B39" t="inlineStr">
@@ -5105,7 +5163,7 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="3" t="n">
+      <c r="A40" s="6" t="n">
         <v>45902</v>
       </c>
       <c r="B40" t="inlineStr">
@@ -5123,7 +5181,7 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="3" t="n">
+      <c r="A41" s="6" t="n">
         <v>45902</v>
       </c>
       <c r="B41" t="inlineStr">
@@ -5141,7 +5199,7 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="3" t="n">
+      <c r="A42" s="6" t="n">
         <v>45902</v>
       </c>
       <c r="B42" t="inlineStr">
@@ -5159,7 +5217,7 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="3" t="n">
+      <c r="A43" s="6" t="n">
         <v>45904</v>
       </c>
       <c r="B43" t="inlineStr">
@@ -5177,7 +5235,7 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="3" t="n">
+      <c r="A44" s="6" t="n">
         <v>45905</v>
       </c>
       <c r="B44" t="inlineStr">
@@ -5195,7 +5253,7 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="3" t="n">
+      <c r="A45" s="6" t="n">
         <v>45908</v>
       </c>
       <c r="B45" t="inlineStr">
@@ -5213,7 +5271,7 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="3" t="n">
+      <c r="A46" s="6" t="n">
         <v>45910</v>
       </c>
       <c r="B46" t="inlineStr">
@@ -5231,7 +5289,7 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="3" t="n">
+      <c r="A47" s="6" t="n">
         <v>45910</v>
       </c>
       <c r="B47" t="inlineStr">
@@ -5249,7 +5307,7 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="3" t="n">
+      <c r="A48" s="6" t="n">
         <v>45910</v>
       </c>
       <c r="B48" t="inlineStr">
@@ -5267,7 +5325,7 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="3" t="n">
+      <c r="A49" s="6" t="n">
         <v>45911</v>
       </c>
       <c r="B49" t="inlineStr">
@@ -5285,7 +5343,7 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="3" t="n">
+      <c r="A50" s="6" t="n">
         <v>45913</v>
       </c>
       <c r="B50" t="inlineStr">
@@ -5303,7 +5361,7 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="3" t="n">
+      <c r="A51" s="6" t="n">
         <v>45916</v>
       </c>
       <c r="B51" t="inlineStr">
@@ -5321,7 +5379,7 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="3" t="n">
+      <c r="A52" s="6" t="n">
         <v>45916</v>
       </c>
       <c r="B52" t="inlineStr">
@@ -5339,7 +5397,7 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="3" t="n">
+      <c r="A53" s="6" t="n">
         <v>45916</v>
       </c>
       <c r="B53" t="inlineStr">
@@ -5357,7 +5415,7 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="3" t="n">
+      <c r="A54" s="6" t="n">
         <v>45918</v>
       </c>
       <c r="B54" t="inlineStr">
@@ -5375,7 +5433,7 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="3" t="n">
+      <c r="A55" s="6" t="n">
         <v>45920</v>
       </c>
       <c r="B55" t="inlineStr">
@@ -5393,7 +5451,7 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="3" t="n">
+      <c r="A56" s="6" t="n">
         <v>45922</v>
       </c>
       <c r="B56" t="inlineStr">
@@ -5411,7 +5469,7 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="3" t="n">
+      <c r="A57" s="6" t="n">
         <v>45924</v>
       </c>
       <c r="B57" t="inlineStr">
@@ -5429,7 +5487,7 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="3" t="n">
+      <c r="A58" s="6" t="n">
         <v>45926</v>
       </c>
       <c r="B58" t="inlineStr">
@@ -5447,7 +5505,7 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="3" t="n">
+      <c r="A59" s="6" t="n">
         <v>45929</v>
       </c>
       <c r="B59" t="inlineStr">
@@ -5465,7 +5523,7 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="3" t="n">
+      <c r="A60" s="6" t="n">
         <v>45930</v>
       </c>
       <c r="B60" t="inlineStr">
@@ -5483,7 +5541,7 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="3" t="n">
+      <c r="A61" s="6" t="n">
         <v>45930</v>
       </c>
       <c r="B61" t="inlineStr">
@@ -5501,6 +5559,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D61"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -5513,6 +5572,1314 @@
   </sheetPr>
   <dimension ref="A1:D71"/>
   <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="17.4"/>
+  <cols>
+    <col width="18.8984375" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="32.19921875" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="8.59765625" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>결제일자</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>가맹점명</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>이용금액</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>사용용도</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="6" t="n">
+        <v>45778</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>휴대폰메시지(승인안내)-05월분</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>400</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>수수료</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="6" t="n">
+        <v>45809</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>SK에너지(주)고잔</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>80000</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>차량유지비(주유)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="6" t="n">
+        <v>45809</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>휴대폰메시지(승인안내)-06월분</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>400</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>사용료</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="6" t="n">
+        <v>45810</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>조개99' s</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>91000</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>중식대</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="n">
+        <v>45814</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>대보유통(주)남성주(양평방향)주유소</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>70000</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>차량유지비(주유)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="6" t="n">
+        <v>45815</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>준뽕</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>46700</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>중식대</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="6" t="n">
+        <v>45819</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>오서방닭개장</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>중식대</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="6" t="n">
+        <v>45821</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>빠네뜨리아 과자점</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>33600</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>중식대</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="6" t="n">
+        <v>45824</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>(주)성한기업</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>63910</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>기숙사 물품 구입비</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="6" t="n">
+        <v>45825</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>빠네뜨리아 과자점</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>45100</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>중식대</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="6" t="n">
+        <v>45827</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>공일돈까스 안산MTV점</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>10900</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>중식대</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="6" t="n">
+        <v>45827</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>빠네뜨리아 과자점</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>42100</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>중식대</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="6" t="n">
+        <v>45828</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>빠네뜨리아 과자점</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>17500</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>중식대</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="6" t="n">
+        <v>45828</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>동광석유(주)역전주유소</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>60000</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>차량유지비(주유)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="6" t="n">
+        <v>45831</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>THE 두루치기</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>30500</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>중식대</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="6" t="n">
+        <v>45832</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>빅쭌부대찌개</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>45000</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>중식대</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="6" t="n">
+        <v>45832</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>(주)성한기업</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>80290</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>기숙사 물품 구입비</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="6" t="n">
+        <v>45834</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>공일돈까스 안산MTV점</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>13900</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>중식대</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="6" t="n">
+        <v>45835</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>짬뽕지존 시화MTV점</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>41000</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>중식대</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="6" t="n">
+        <v>45836</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>(주)늘봄가</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>78000</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>중식대</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="6" t="n">
+        <v>45838</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>제육대가</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>10000</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>중식대</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="6" t="n">
+        <v>45838</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>(주)성한기업</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>64170</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>기숙사 물품 구입비</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="6" t="n">
+        <v>45839</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>THE 두루치기</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>41500</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>중식대</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="6" t="n">
+        <v>45839</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>시흥버스터미널(주)</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>70000</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>기타</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="6" t="n">
+        <v>45839</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>휴대폰메시지(승인안내)-07월분</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>400</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>사용료</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="6" t="n">
+        <v>45840</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>공일돈까스 안산MTV점</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>13500</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>중식대</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="6" t="n">
+        <v>45841</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>THE 두루치기</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>41500</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>중식대</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="6" t="n">
+        <v>45842</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>(주)성한기업</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>48170</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>기숙사 물품 구입비</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="6" t="n">
+        <v>45845</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>야자수</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>34700</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>중식대</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="6" t="n">
+        <v>45848</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>동광석유(주)역전주유소</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>60000</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>차량유지비(주유)</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="6" t="n">
+        <v>45849</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>편편집시흥배곧점</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>41000</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>중식대</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="6" t="n">
+        <v>45849</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>(주)성한기업</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>84460</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>기숙사 물품 구입비</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="6" t="n">
+        <v>45852</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>빠네뜨리아케이크</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>19700</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>기타</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="6" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>오투닭갈비&amp;부대찌개 반달섬점</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>86000</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>중식대</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="6" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>동광석유(주)역전주유소</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>70000</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>차량유지비(주유)</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="6" t="n">
+        <v>45856</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>공일돈까스 안산MTV점</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>13700</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>중식대</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="6" t="n">
+        <v>45860</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>여우애김밥 안산반달섬점</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>22800</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>중식대</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="6" t="n">
+        <v>45861</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>김종구부산어묵 정왕점</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>25700</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>중식대</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="6" t="n">
+        <v>45862</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>빠네뜨리아케이크</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>22900</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>중식대</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="6" t="n">
+        <v>45863</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>편편집 시흥정왕점</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>52500</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>중식대</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="6" t="n">
+        <v>45864</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>육수당 안산고잔점</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>23000</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>중식대</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="6" t="n">
+        <v>45866</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>이마트24 R안산렌보파이브점</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>20300</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>중식대</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="6" t="n">
+        <v>45866</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>비비큐시화정왕점</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>58000</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>여비교통비</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="6" t="n">
+        <v>45869</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>써브웨이시흥배곧신도시점</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>26300</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>복리후생비</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="6" t="n">
+        <v>45869</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>시화대성주유소</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>60000</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>복리후생비</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="6" t="n">
+        <v>45869</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>이루다제면소 반달섬점</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>31900</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>중식대</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="6" t="n">
+        <v>45871</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>정안에너지</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>70000</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>차량유지비(주유)</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="6" t="n">
+        <v>45872</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>주식회사 살살녹소정왕점</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>98000</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>중식대</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="6" t="n">
+        <v>45873</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>라홍방마라탕 시흥배곧점</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>34400</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>중식대</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="6" t="n">
+        <v>45874</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>MTV스마트주유소</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>60000</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>차량유지비(주유)</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="6" t="n">
+        <v>45874</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>THE 두루치기</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>41500</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>중식대</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="6" t="n">
+        <v>45875</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>(주)성한기업</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>79130</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>기숙사 물품 구입비</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="6" t="n">
+        <v>45875</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>본약국</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>33000</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>복리후생비(의료)</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="6" t="n">
+        <v>45875</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>(재)한국소년보호협회</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>4000</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>기타</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="6" t="n">
+        <v>45876</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>톡톡푸드</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>33000</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>중식대</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="6" t="n">
+        <v>45876</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>빠네뜨리아 과자점</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>41100</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>중식대</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="6" t="n">
+        <v>45877</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>MTV스마트주유소</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>93000</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>차량유지비(주유)</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="6" t="n">
+        <v>45877</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>THE 두루치기</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>31000</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>중식대</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="6" t="n">
+        <v>45881</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>빽다방(시흥정왕로데오점)</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>5500</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>중식대</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="6" t="n">
+        <v>45882</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>구름계란덮밥시흥정왕점</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>19300</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>중식대</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="6" t="n">
+        <v>45884</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>송림수산직영점</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>59800</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>중식대</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="6" t="n">
+        <v>45884</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>송림복장어민물장어무한리필직영점</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>8000</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>중식대</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="6" t="n">
+        <v>45884</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>시화대성주유소</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>70000</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>차량유지비(주유)</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="6" t="n">
+        <v>45885</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>쿠우쿠우 시흥배곧점</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>34900</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>중식대</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="6" t="n">
+        <v>45887</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>SK대로셀프주유소</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>200000</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>차량유지비(주유)</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="6" t="n">
+        <v>45889</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>(주)삼원기업</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>60000</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0276호 스타렉스 경유대</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="6" t="n">
+        <v>45889</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>이마트24 R안산렌보파이브점</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>16900</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>중식대</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="6" t="n">
+        <v>45890</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>공일돈까스 안산MTV점</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>11400</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>중식대</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="6" t="n">
+        <v>45891</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>스시아이</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>44000</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>중식대</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="6" t="n">
+        <v>45899</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>쿠우쿠우 시흥배곧점</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>69800</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>중식대</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D71"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
@@ -5520,1284 +6887,60 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>결제일자</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>가맹점명</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>이용금액</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>사용용도</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="n">
-        <v>45778</v>
+      <c r="A2" s="7" t="n">
+        <v>45866</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>휴대폰메시지(승인안내)-05월분</t>
+          <t>후불하이패스3건</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>3500</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>수수료</t>
+          <t>차량유지비(기타)</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="n">
-        <v>45809</v>
+      <c r="A3" s="7" t="n">
+        <v>45894</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SK에너지(주)고잔</t>
+          <t>후불하이패스2건</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>80000</v>
+        <v>7200</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>차량유지비(주유)</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="n">
-        <v>45809</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>휴대폰메시지(승인안내)-06월분</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>400</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>사용료</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="n">
-        <v>45810</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>조개99' s</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>91000</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>중식대</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>45814</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>대보유통(주)남성주(양평방향)주유소</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>70000</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>차량유지비(주유)</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>45815</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>준뽕</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>46700</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>중식대</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>45819</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>오서방닭개장</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>10000</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>중식대</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>45821</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>빠네뜨리아 과자점</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>33600</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>중식대</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>45824</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>(주)성한기업</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>63910</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>기숙사 물품 구입비</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>45825</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>빠네뜨리아 과자점</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>45100</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>중식대</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="n">
-        <v>45827</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>공일돈까스 안산MTV점</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>10900</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>중식대</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="n">
-        <v>45827</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>빠네뜨리아 과자점</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>42100</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>중식대</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="3" t="n">
-        <v>45828</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>빠네뜨리아 과자점</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>17500</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>중식대</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="n">
-        <v>45828</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>동광석유(주)역전주유소</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>60000</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>차량유지비(주유)</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="n">
-        <v>45831</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>THE 두루치기</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>30500</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>중식대</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="n">
-        <v>45832</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>빅쭌부대찌개</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>45000</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>중식대</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="3" t="n">
-        <v>45832</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>(주)성한기업</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>80290</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>기숙사 물품 구입비</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="3" t="n">
-        <v>45834</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>공일돈까스 안산MTV점</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>13900</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>중식대</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="3" t="n">
-        <v>45835</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>짬뽕지존 시화MTV점</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>41000</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>중식대</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="3" t="n">
-        <v>45836</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>(주)늘봄가</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>78000</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>중식대</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="3" t="n">
-        <v>45838</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>제육대가</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>10000</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>중식대</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="3" t="n">
-        <v>45838</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>(주)성한기업</t>
-        </is>
-      </c>
-      <c r="C23" t="n">
-        <v>64170</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>기숙사 물품 구입비</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="3" t="n">
-        <v>45839</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>THE 두루치기</t>
-        </is>
-      </c>
-      <c r="C24" t="n">
-        <v>41500</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>중식대</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="3" t="n">
-        <v>45839</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>시흥버스터미널(주)</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>70000</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>기타</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="3" t="n">
-        <v>45839</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>휴대폰메시지(승인안내)-07월분</t>
-        </is>
-      </c>
-      <c r="C26" t="n">
-        <v>400</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>사용료</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="3" t="n">
-        <v>45840</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>공일돈까스 안산MTV점</t>
-        </is>
-      </c>
-      <c r="C27" t="n">
-        <v>13500</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>중식대</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="3" t="n">
-        <v>45841</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>THE 두루치기</t>
-        </is>
-      </c>
-      <c r="C28" t="n">
-        <v>41500</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>중식대</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="3" t="n">
-        <v>45842</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>(주)성한기업</t>
-        </is>
-      </c>
-      <c r="C29" t="n">
-        <v>48170</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>기숙사 물품 구입비</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="3" t="n">
-        <v>45845</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>야자수</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>34700</v>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>중식대</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="3" t="n">
-        <v>45848</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>동광석유(주)역전주유소</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>60000</v>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>차량유지비(주유)</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="3" t="n">
-        <v>45849</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>편편집시흥배곧점</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>41000</v>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>중식대</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="3" t="n">
-        <v>45849</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>(주)성한기업</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>84460</v>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>기숙사 물품 구입비</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="3" t="n">
-        <v>45852</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>빠네뜨리아케이크</t>
-        </is>
-      </c>
-      <c r="C34" t="n">
-        <v>19700</v>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>기타</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="3" t="n">
-        <v>45853</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>오투닭갈비&amp;부대찌개 반달섬점</t>
-        </is>
-      </c>
-      <c r="C35" t="n">
-        <v>86000</v>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>중식대</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="3" t="n">
-        <v>45853</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>동광석유(주)역전주유소</t>
-        </is>
-      </c>
-      <c r="C36" t="n">
-        <v>70000</v>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>차량유지비(주유)</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="3" t="n">
-        <v>45856</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>공일돈까스 안산MTV점</t>
-        </is>
-      </c>
-      <c r="C37" t="n">
-        <v>13700</v>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>중식대</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="3" t="n">
-        <v>45860</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>여우애김밥 안산반달섬점</t>
-        </is>
-      </c>
-      <c r="C38" t="n">
-        <v>22800</v>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>중식대</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="3" t="n">
-        <v>45861</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>김종구부산어묵 정왕점</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>25700</v>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>중식대</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="3" t="n">
-        <v>45862</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>빠네뜨리아케이크</t>
-        </is>
-      </c>
-      <c r="C40" t="n">
-        <v>22900</v>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>중식대</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="3" t="n">
-        <v>45863</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>편편집 시흥정왕점</t>
-        </is>
-      </c>
-      <c r="C41" t="n">
-        <v>52500</v>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>중식대</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="3" t="n">
-        <v>45864</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>육수당 안산고잔점</t>
-        </is>
-      </c>
-      <c r="C42" t="n">
-        <v>23000</v>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>중식대</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="3" t="n">
-        <v>45866</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>이마트24 R안산렌보파이브점</t>
-        </is>
-      </c>
-      <c r="C43" t="n">
-        <v>20300</v>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>중식대</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="3" t="n">
-        <v>45866</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>비비큐시화정왕점</t>
-        </is>
-      </c>
-      <c r="C44" t="n">
-        <v>58000</v>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>여비교통비</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="3" t="n">
-        <v>45869</v>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>써브웨이시흥배곧신도시점</t>
-        </is>
-      </c>
-      <c r="C45" t="n">
-        <v>26300</v>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>복리후생비</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="3" t="n">
-        <v>45869</v>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>시화대성주유소</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>60000</v>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>복리후생비</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="3" t="n">
-        <v>45869</v>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>이루다제면소 반달섬점</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>31900</v>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>중식대</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="3" t="n">
-        <v>45871</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>정안에너지</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>70000</v>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>차량유지비(주유)</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="3" t="n">
-        <v>45872</v>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>주식회사 살살녹소정왕점</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>98000</v>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>중식대</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="3" t="n">
-        <v>45873</v>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>라홍방마라탕 시흥배곧점</t>
-        </is>
-      </c>
-      <c r="C50" t="n">
-        <v>34400</v>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>중식대</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="3" t="n">
-        <v>45874</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>MTV스마트주유소</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>60000</v>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>차량유지비(주유)</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="3" t="n">
-        <v>45874</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>THE 두루치기</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>41500</v>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>중식대</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="3" t="n">
-        <v>45875</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>(주)성한기업</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>79130</v>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>기숙사 물품 구입비</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="3" t="n">
-        <v>45875</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>본약국</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
-        <v>33000</v>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>복리후생비(의료)</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="3" t="n">
-        <v>45875</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>(재)한국소년보호협회</t>
-        </is>
-      </c>
-      <c r="C55" t="n">
-        <v>4000</v>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>기타</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="3" t="n">
-        <v>45876</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>톡톡푸드</t>
-        </is>
-      </c>
-      <c r="C56" t="n">
-        <v>33000</v>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>중식대</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="3" t="n">
-        <v>45876</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>빠네뜨리아 과자점</t>
-        </is>
-      </c>
-      <c r="C57" t="n">
-        <v>41100</v>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>중식대</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="3" t="n">
-        <v>45877</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>MTV스마트주유소</t>
-        </is>
-      </c>
-      <c r="C58" t="n">
-        <v>93000</v>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>차량유지비(주유)</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="3" t="n">
-        <v>45877</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>THE 두루치기</t>
-        </is>
-      </c>
-      <c r="C59" t="n">
-        <v>31000</v>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>중식대</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="3" t="n">
-        <v>45881</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>빽다방(시흥정왕로데오점)</t>
-        </is>
-      </c>
-      <c r="C60" t="n">
-        <v>5500</v>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>중식대</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="3" t="n">
-        <v>45882</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>구름계란덮밥시흥정왕점</t>
-        </is>
-      </c>
-      <c r="C61" t="n">
-        <v>19300</v>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>중식대</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="3" t="n">
-        <v>45884</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>송림수산직영점</t>
-        </is>
-      </c>
-      <c r="C62" t="n">
-        <v>59800</v>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>중식대</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="3" t="n">
-        <v>45884</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>송림복장어민물장어무한리필직영점</t>
-        </is>
-      </c>
-      <c r="C63" t="n">
-        <v>8000</v>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>중식대</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="3" t="n">
-        <v>45884</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>시화대성주유소</t>
-        </is>
-      </c>
-      <c r="C64" t="n">
-        <v>70000</v>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>차량유지비(주유)</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="3" t="n">
-        <v>45885</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>쿠우쿠우 시흥배곧점</t>
-        </is>
-      </c>
-      <c r="C65" t="n">
-        <v>34900</v>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>중식대</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="3" t="n">
-        <v>45887</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>SK대로셀프주유소</t>
-        </is>
-      </c>
-      <c r="C66" t="n">
-        <v>200000</v>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>차량유지비(주유)</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="3" t="n">
-        <v>45889</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>(주)삼원기업</t>
-        </is>
-      </c>
-      <c r="C67" t="n">
-        <v>60000</v>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>0276호 스타렉스 경유대</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="3" t="n">
-        <v>45889</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>이마트24 R안산렌보파이브점</t>
-        </is>
-      </c>
-      <c r="C68" t="n">
-        <v>16900</v>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>중식대</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="3" t="n">
-        <v>45890</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>공일돈까스 안산MTV점</t>
-        </is>
-      </c>
-      <c r="C69" t="n">
-        <v>11400</v>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>중식대</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="3" t="n">
-        <v>45891</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>스시아이</t>
-        </is>
-      </c>
-      <c r="C70" t="n">
-        <v>44000</v>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>중식대</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="3" t="n">
-        <v>45899</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>쿠우쿠우 시흥배곧점</t>
-        </is>
-      </c>
-      <c r="C71" t="n">
-        <v>69800</v>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>중식대</t>
+          <t>차량유지비(기타)</t>
         </is>
       </c>
     </row>
